--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -1,58 +1,584 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
+  </bookViews>
   <sheets>
     <sheet name="zh-Hans-CN" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sourceValue</t>
+  </si>
+  <si>
+    <t>targetValue</t>
+  </si>
+  <si>
+    <t>LanguageTag</t>
+  </si>
+  <si>
+    <t>zh-Hans-CN</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>加载中……</t>
+  </si>
+  <si>
+    <t>GameName</t>
+  </si>
+  <si>
+    <t>即时战略指挥</t>
+  </si>
+  <si>
+    <t>MainSvr</t>
+  </si>
+  <si>
+    <t>登录正式服</t>
+  </si>
+  <si>
+    <t>TestSvr</t>
+  </si>
+  <si>
+    <t>登录测试服</t>
+  </si>
+  <si>
+    <t>urlNotice</t>
+  </si>
+  <si>
+    <t>即时战略指挥公告/公告.txt</t>
+  </si>
+  <si>
+    <t>urlNoticeLeft</t>
+  </si>
+  <si>
+    <t>即时战略指挥公告/公告左.txt</t>
+  </si>
+  <si>
+    <t>LoginMainSvr</t>
+  </si>
+  <si>
+    <t>LoginTestSvr</t>
+  </si>
+  <si>
+    <t>登录测试体验服</t>
+  </si>
+  <si>
+    <t>JianKangYouXiZhongDao</t>
+  </si>
+  <si>
+    <t>健康游戏忠告
+抵制不良游戏，拒绝盗版游戏。注意自我保护，谨防受骗上当。
+适度游戏益脑，沉迷游戏伤身。合理安排时间，享受健康生活。</t>
+  </si>
+  <si>
+    <t>DuoWanJiaHunZhan</t>
+  </si>
+  <si>
+    <t>多玩家混战
+&lt;size=10&gt;玩家互为敌对阵营&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>LeaveScene</t>
+  </si>
+  <si>
+    <t>离开场景</t>
+  </si>
+  <si>
+    <t>InputChat</t>
+  </si>
+  <si>
+    <t>输入聊天</t>
+  </si>
+  <si>
+    <t>ChatHistory</t>
+  </si>
+  <si>
+    <t>聊天历史记录</t>
+  </si>
+  <si>
+    <t>GameStrategy</t>
+  </si>
+  <si>
+    <t>游戏攻略</t>
+  </si>
+  <si>
+    <t>urlGameStrategy</t>
+  </si>
+  <si>
+    <t>即时战略指挥攻略/帮助.txt</t>
+  </si>
+  <si>
+    <t>ConnectSuccess</t>
+  </si>
+  <si>
+    <t>连接成功，请等待登录结果……</t>
+  </si>
+  <si>
+    <t>Connecting</t>
+  </si>
+  <si>
+    <t>正在连接'</t>
+  </si>
+  <si>
+    <t>ConnectError</t>
+  </si>
+  <si>
+    <t>连接错误，您可以再试一次</t>
+  </si>
+  <si>
+    <t>ConnectClosed</t>
+  </si>
+  <si>
+    <t>连接已断开，已回到登录场景</t>
+  </si>
+  <si>
+    <t>PleaseInputNickname</t>
+  </si>
+  <si>
+    <t>请输入昵称（随便什么都可以）</t>
+  </si>
+  <si>
+    <t>SceneLoaded</t>
+  </si>
+  <si>
+    <t>场景加载完成！</t>
+  </si>
+  <si>
+    <t>CountConfigFileDownloading</t>
+  </si>
+  <si>
+    <t>个配置文件正在下载中，请稍后再试</t>
+  </si>
+  <si>
+    <t>ContributorsList</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;音乐：&lt;/b&gt;EinhornN7獬羽柏(QQ 2990490699)、乌鸦Producer(QQ 2998975740)、电波暴击(QQ 1106551898)
+&lt;b&gt;首页底图：&lt;/b&gt;不问清阴(QQ 3969340418) &lt;b&gt;关卡：&lt;/b&gt;阳光下的一个虾(QQ 1179331661)
+&lt;b&gt;3D模型：&lt;/b&gt;TripoAI、混元AI &lt;b&gt;抠图：&lt;/b&gt;豆包AI &lt;b&gt;地面纹理：&lt;/b&gt;夸克AI、豆包AI
+&lt;b&gt;头像图片：&lt;/b&gt;文小言AI &lt;b&gt;音乐：&lt;/b&gt;SunoAI &lt;b&gt;辅助编程：&lt;/b&gt;通义灵码AI、CusorAI
+&lt;b&gt;绑定/动作：&lt;/b&gt;苽禾(QQ 3223213062)、mixamo.com
+&lt;b&gt;绑定/动作：&lt;/b&gt;小白阿姨(QQ 3276812319)、九里庆安(QQ 284102069)
+&lt;b&gt;绑定/动作：&lt;/b&gt;大呲花(QQ 3029823814)、恒(QQ 2682677034)
+&lt;b&gt;绑定/动作：&lt;/b&gt;天涳の翼(QQ 349070005)、适中(QQ 1136976220)
+&lt;b&gt;绑定/动作：&lt;/b&gt;哈哈哈哈(QQ 2517969872)、一方狂三(QQ 1256604813)
+&lt;b&gt;模型/动作：&lt;/b&gt;⊹꙳ ˶˙ᵕ˙˶ ⊹꙳(QQ 2104435032)、&lt;color=#a0ff50&gt;荧瞳(QQ 287859992)、荒野乱斗(QQ 2930801690)&lt;/color&gt;
+&lt;b&gt;语音：&lt;/b&gt;无梦(QQ 1744500392)、水薄荷(QQ 1982131539)
+&lt;b&gt;语音：&lt;/b&gt;若有道心(QQ 1602576119)、潭(QQ 1514475926)、&lt;color=#a0ff50&gt;凌枭(QQ 2862703087)&lt;/color&gt;
+&lt;b&gt;程序：&lt;/b&gt;火凤凰(QQ 75187631)、&lt;color=#a0ff50&gt;江沉晚吟时(QQ 3380125833)&lt;/color&gt;
+&lt;b&gt;程序：&lt;/b&gt;庄园(QQ 2516080307)、kunnka(QQ 954436840)、樱木花道(QQ 251949672)
+&lt;b&gt;游戏引擎：&lt;/b&gt;Cocos Creator 3.8</t>
+  </si>
+  <si>
+    <t>InputNickName</t>
+  </si>
+  <si>
+    <t>输入昵称……</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +586,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,80 +1220,319 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>sourceValue</v>
-      </c>
-      <c r="C1" t="str">
-        <v>targetValue</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>LanguageTag</v>
-      </c>
-      <c r="B2" t="str">
-        <v>zh-Hans-CN</v>
-      </c>
-      <c r="C2" t="str">
-        <v>zh-Hans-CN</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>GameName</v>
-      </c>
-      <c r="B3" t="str">
-        <v>即时战略指挥</v>
-      </c>
-      <c r="C3" t="str">
-        <v>即时战略指挥</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>MainSvr</v>
-      </c>
-      <c r="B4" t="str">
-        <v>登录正式服</v>
-      </c>
-      <c r="C4" t="str">
-        <v>登录正式服</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>TestSvr</v>
-      </c>
-      <c r="B5" t="str">
-        <v>登录测试服</v>
-      </c>
-      <c r="C5" t="str">
-        <v>登录测试服</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="42.75" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="215.25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C17" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
   <si>
     <t>key</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>离开场景</t>
+  </si>
+  <si>
+    <t>RenZaiXian</t>
+  </si>
+  <si>
+    <t>人在线</t>
   </si>
   <si>
     <t>InputChat</t>
@@ -201,6 +207,224 @@
   <si>
     <t>输入昵称……</t>
   </si>
+  <si>
+    <t>SinglePlayerBattle</t>
+  </si>
+  <si>
+    <t>单玩家战局
+&lt;size=15&gt;新手训练、防守、攻坚、中央防守&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>MultiPlayerBattle</t>
+  </si>
+  <si>
+    <t>多玩家战局
+&lt;size=15&gt;混战、四方对战、一打一&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>MusicGallery</t>
+  </si>
+  <si>
+    <t>音乐鉴赏
+&lt;size=12&gt;曲名、作者、版权&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>BackToPreMenu</t>
+  </si>
+  <si>
+    <t>返回上一级</t>
+  </si>
+  <si>
+    <t>CopyRightSuno</t>
+  </si>
+  <si>
+    <t>版权归Suno和提示词作者共有，使用权开放给所有人。</t>
+  </si>
+  <si>
+    <t>CopyRightFree</t>
+  </si>
+  <si>
+    <t>版权归作者所有，通知作者后可共享商用（强制署名）。</t>
+  </si>
+  <si>
+    <t>AuthorSuno</t>
+  </si>
+  <si>
+    <t>Suno AI、提示词作者</t>
+  </si>
+  <si>
+    <t>AuthorWuYaProducer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌鸦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Producer(QQ 2998975740)</t>
+    </r>
+  </si>
+  <si>
+    <t>AuthorXieYuBai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EinhornN7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>獬羽柏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(QQ 2990490699)</t>
+    </r>
+  </si>
+  <si>
+    <t>AuthorDianBoBaoji</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电波暴击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(QQ 1106551898)</t>
+    </r>
+  </si>
+  <si>
+    <t>MusicShiJieYouHuiFuLeHePing</t>
+  </si>
+  <si>
+    <t>世界又恢复了和平</t>
+  </si>
+  <si>
+    <t>MusicShiJieYouHuiFuLeHePing2</t>
+  </si>
+  <si>
+    <t>世界又恢复了和平2</t>
+  </si>
+  <si>
+    <t>MusicZhanXianBengKui</t>
+  </si>
+  <si>
+    <t>战线崩溃</t>
+  </si>
+  <si>
+    <t>MusicShanJiZhan</t>
+  </si>
+  <si>
+    <t>闪击战</t>
+  </si>
+  <si>
+    <t>MusicHouQinYunYing</t>
+  </si>
+  <si>
+    <t>后勤运营</t>
+  </si>
+  <si>
+    <t>MusicZhongGongYeLangMan</t>
+  </si>
+  <si>
+    <t>重工业浪漫</t>
+  </si>
+  <si>
+    <t>MusicYuanJunDaoDaZhanChang</t>
+  </si>
+  <si>
+    <t>援军到达战场</t>
+  </si>
+  <si>
+    <t>MusicDingJv</t>
+  </si>
+  <si>
+    <t>定居</t>
+  </si>
+  <si>
+    <t>MusicPiaoBo</t>
+  </si>
+  <si>
+    <t>漂泊</t>
+  </si>
+  <si>
+    <t>MusicSampleKiller</t>
+  </si>
+  <si>
+    <t>Sample Killer</t>
+  </si>
+  <si>
+    <t>MusicFollowTheLight</t>
+  </si>
+  <si>
+    <t>Follow The Light</t>
+  </si>
+  <si>
+    <t>MusicDesert</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>MusicXingLian</t>
+  </si>
+  <si>
+    <t>星联</t>
+  </si>
+  <si>
+    <t>MusicSpaceLight</t>
+  </si>
+  <si>
+    <t>Space Fight</t>
+  </si>
+  <si>
+    <t>MusicName</t>
+  </si>
+  <si>
+    <t>曲名</t>
+  </si>
+  <si>
+    <t>MusicAuthor</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>MusicCopyright</t>
+  </si>
+  <si>
+    <t>版权</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +436,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +462,33 @@
       <i/>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -687,160 +938,186 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1226,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1352,10 +1629,10 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1418,10 +1695,10 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1429,10 +1706,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1458,25 +1735,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:3">
-      <c r="A21" s="2" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1502,32 +1779,340 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="215.25" spans="1:3">
+    <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
+    <row r="26" s="1" customFormat="1" ht="215.25" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="28.5" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:3">
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C17" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="B18" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C18" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>key</t>
   </si>
@@ -100,8 +100,43 @@
     <t>DuoWanJiaHunZhan</t>
   </si>
   <si>
-    <t>多玩家混战
-&lt;size=10&gt;玩家互为敌对阵营&lt;/size&gt;</t>
+    <t>多  玩  家  混  战
+&lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>DuoWanJiaHunZhan_ShaMo</t>
+  </si>
+  <si>
+    <t>多玩家混战（沙漠）
+&lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>YiDaYi</t>
+  </si>
+  <si>
+    <t>一打一（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>ZhongYangFangShou_WanJiaHeZuo</t>
+  </si>
+  <si>
+    <t>中央防守 玩家合作（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>JiaRuDuoRenZhanJu</t>
+  </si>
+  <si>
+    <t>加入其他玩家创建的多人战局
+&lt;size=12&gt;挑战其他玩家&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>SiFangDuiZhan</t>
+  </si>
+  <si>
+    <t>四方对战（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
   </si>
   <si>
     <t>LeaveScene</t>
@@ -425,6 +460,30 @@
   <si>
     <t>版权</t>
   </si>
+  <si>
+    <t>PangGuanBieRen</t>
+  </si>
+  <si>
+    <t>旁观其他玩家的战局</t>
+  </si>
+  <si>
+    <t>PaiHangBang</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>RenLei</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>ChongZu</t>
+  </si>
+  <si>
+    <t>虫族</t>
+  </si>
 </sst>
 </file>
 
@@ -451,6 +510,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -462,12 +527,6 @@
       <i/>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFE394DC"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -953,7 +1012,7 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1091,13 +1150,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1113,12 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1503,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1636,69 +1692,69 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
+    <row r="12" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
+    <row r="13" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
+    <row r="14" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
+    <row r="15" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
+    <row r="16" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="1" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1706,10 +1762,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1746,14 +1802,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1761,10 +1817,10 @@
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1790,135 +1846,135 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="215.25" spans="1:3">
+    <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:3">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:3">
-      <c r="A29" s="7" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:3">
-      <c r="A30" s="7" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:3">
-      <c r="A31" s="9" t="s">
+    <row r="31" s="1" customFormat="1" ht="215.25" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:3">
-      <c r="A32" s="3" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:3">
-      <c r="A33" s="3" t="s">
+    <row r="33" ht="28.5" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:3">
-      <c r="A34" s="11" t="s">
+    <row r="34" ht="28.5" spans="1:3">
+      <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A35" s="11" t="s">
+    <row r="35" ht="28.5" spans="1:3">
+      <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A36" s="3" t="s">
+    <row r="36" s="3" customFormat="1" spans="1:3">
+      <c r="A36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="17.25" spans="1:3">
+    <row r="37" s="3" customFormat="1" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1926,54 +1982,54 @@
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:3">
-      <c r="A40" s="3" t="s">
+    <row r="40" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:3">
+    <row r="41" s="3" customFormat="1" ht="17.25" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:3">
+    <row r="42" s="3" customFormat="1" ht="17.25" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1981,10 +2037,10 @@
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1992,10 +2048,10 @@
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2003,10 +2059,10 @@
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2014,10 +2070,10 @@
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2025,10 +2081,10 @@
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2036,10 +2092,10 @@
       <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2047,10 +2103,10 @@
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2058,10 +2114,10 @@
       <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2069,55 +2125,154 @@
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="3" customFormat="1" spans="1:3">
+      <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="15" t="s">
+    <row r="53" s="3" customFormat="1" spans="1:3">
+      <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="15" t="s">
+    <row r="54" s="3" customFormat="1" spans="1:3">
+      <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C18" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="B23" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C23" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
   <si>
     <t>key</t>
   </si>
@@ -484,6 +484,108 @@
   <si>
     <t>虫族</t>
   </si>
+  <si>
+    <t>DanWeiJieShao_Ren</t>
+  </si>
+  <si>
+    <t>单位介绍（人）</t>
+  </si>
+  <si>
+    <t>FanKongJiangZhan_Ren</t>
+  </si>
+  <si>
+    <t>反空降战（人）</t>
+  </si>
+  <si>
+    <t>FangKongZhan_Ren</t>
+  </si>
+  <si>
+    <t>防空战（人）</t>
+  </si>
+  <si>
+    <t>QiangBingDanTiaoTanKe_Ren</t>
+  </si>
+  <si>
+    <t>枪兵单挑坦克（人）</t>
+  </si>
+  <si>
+    <t>CaiJi_JianZao_ZhanDou_Ren</t>
+  </si>
+  <si>
+    <t>采集、建造、战斗（人）</t>
+  </si>
+  <si>
+    <t>FangShouZhan_Ren</t>
+  </si>
+  <si>
+    <t>防守战（人）</t>
+  </si>
+  <si>
+    <t>GongJianZhan_Ren</t>
+  </si>
+  <si>
+    <t>攻坚战（人）</t>
+  </si>
+  <si>
+    <t>ZhonYangFangShou_Ren</t>
+  </si>
+  <si>
+    <t>中央防守（人）</t>
+  </si>
+  <si>
+    <t>DanWeiJieShao_Chong</t>
+  </si>
+  <si>
+    <t>单位介绍（虫）</t>
+  </si>
+  <si>
+    <t>KongJiangZhan_Chong</t>
+  </si>
+  <si>
+    <t>空降战（虫）</t>
+  </si>
+  <si>
+    <t>FanFangKongZhan_Chong</t>
+  </si>
+  <si>
+    <t>反防空战（虫）</t>
+  </si>
+  <si>
+    <t>FeiChongDanTiaoPaoTai_Chong</t>
+  </si>
+  <si>
+    <t>飞虫单挑炮台（虫）</t>
+  </si>
+  <si>
+    <t>CaiJi_JianZao_ZhanDou_Chong</t>
+  </si>
+  <si>
+    <t>采集、建造、战斗（虫）</t>
+  </si>
+  <si>
+    <t>FangShouZHan_Chong</t>
+  </si>
+  <si>
+    <t>防守战（虫）</t>
+  </si>
+  <si>
+    <t>GongJianZhan_Chong</t>
+  </si>
+  <si>
+    <t>攻坚战（虫）</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>赢</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>输</t>
+  </si>
 </sst>
 </file>
 
@@ -495,8 +597,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
+  <fonts count="29">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -997,183 +1107,182 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,10 +1668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1571,36 +1680,36 @@
     <col min="2" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1637,558 +1746,558 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="42.75" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" ht="42.75" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A17" s="5" t="s">
+    <row r="17" s="2" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="2" customFormat="1" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="2" customFormat="1" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="23" s="2" customFormat="1" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:3">
-      <c r="A27" s="2" t="s">
+    <row r="27" s="3" customFormat="1" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="1" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="30" s="2" customFormat="1" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="215.25" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="31" s="2" customFormat="1" ht="215.25" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="32" s="2" customFormat="1" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:3">
-      <c r="A36" s="10" t="s">
+    <row r="36" s="4" customFormat="1" spans="1:3">
+      <c r="A36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="4" customFormat="1" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:3">
-      <c r="A38" s="3" t="s">
+    <row r="38" s="4" customFormat="1" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:3">
-      <c r="A39" s="12" t="s">
+    <row r="39" s="4" customFormat="1" spans="1:3">
+      <c r="A39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A40" s="12" t="s">
+    <row r="40" s="4" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="3" t="s">
+    <row r="41" s="4" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A42" s="3" t="s">
+    <row r="42" s="4" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:3">
-      <c r="A43" s="3" t="s">
+    <row r="43" s="4" customFormat="1" spans="1:3">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:3">
-      <c r="A44" s="3" t="s">
+    <row r="44" s="4" customFormat="1" spans="1:3">
+      <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:3">
-      <c r="A45" s="3" t="s">
+    <row r="45" s="4" customFormat="1" spans="1:3">
+      <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:3">
-      <c r="A46" s="3" t="s">
+    <row r="46" s="4" customFormat="1" spans="1:3">
+      <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:3">
-      <c r="A47" s="3" t="s">
+    <row r="47" s="4" customFormat="1" spans="1:3">
+      <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:3">
-      <c r="A48" s="3" t="s">
+    <row r="48" s="4" customFormat="1" spans="1:3">
+      <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:3">
-      <c r="A49" s="3" t="s">
+    <row r="49" s="4" customFormat="1" spans="1:3">
+      <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:3">
-      <c r="A50" s="3" t="s">
+    <row r="50" s="4" customFormat="1" spans="1:3">
+      <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:3">
-      <c r="A51" s="3" t="s">
+    <row r="51" s="4" customFormat="1" spans="1:3">
+      <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:3">
-      <c r="A52" s="3" t="s">
+    <row r="52" s="4" customFormat="1" spans="1:3">
+      <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:3">
-      <c r="A53" s="3" t="s">
+    <row r="53" s="4" customFormat="1" spans="1:3">
+      <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:3">
-      <c r="A54" s="3" t="s">
+    <row r="54" s="4" customFormat="1" spans="1:3">
+      <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:3">
-      <c r="A55" s="3" t="s">
+    <row r="55" s="4" customFormat="1" spans="1:3">
+      <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:3">
-      <c r="A56" s="3" t="s">
+    <row r="56" s="4" customFormat="1" spans="1:3">
+      <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
@@ -2199,7 +2308,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -2210,7 +2319,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -2262,6 +2371,193 @@
       </c>
       <c r="C63" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
   <si>
     <t>key</t>
   </si>
@@ -585,6 +585,137 @@
   </si>
   <si>
     <t>输</t>
+  </si>
+  <si>
+    <t>KuangXuan</t>
+  </si>
+  <si>
+    <t>框选</t>
+  </si>
+  <si>
+    <t>JianZhuDanWei</t>
+  </si>
+  <si>
+    <t>建筑单位</t>
+  </si>
+  <si>
+    <t>HuoDongDanWei</t>
+  </si>
+  <si>
+    <t>活动单位</t>
+  </si>
+  <si>
+    <t>KongXianGongChengCheGongChong</t>
+  </si>
+  <si>
+    <t>空闲
+工程车
+工虫</t>
+  </si>
+  <si>
+    <t>QuanBuZhanDouDanWei</t>
+  </si>
+  <si>
+    <t>全部
+  战斗单位</t>
+  </si>
+  <si>
+    <t>ZhanBao</t>
+  </si>
+  <si>
+    <t>战报</t>
+  </si>
+  <si>
+    <t>SunShiDanWeiPaiHang</t>
+  </si>
+  <si>
+    <t>损失单位排行</t>
+  </si>
+  <si>
+    <t>JiBaiDanWeiPaiHang</t>
+  </si>
+  <si>
+    <t>击败单位排行</t>
+  </si>
+  <si>
+    <t>JiDi</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>MinFang</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>BingYing</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>DiBao</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>PaoTai</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>ZhongCheChang</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>JiChang</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>FangDun</t>
+  </si>
+  <si>
+    <t>方墩</t>
+  </si>
+  <si>
+    <t>ChongChao</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>ChongYing</t>
+  </si>
+  <si>
+    <t>虫营</t>
+  </si>
+  <si>
+    <t>NiTaiYuan</t>
+  </si>
+  <si>
+    <t>拟态源</t>
+  </si>
+  <si>
+    <t>FeiTa</t>
+  </si>
+  <si>
+    <t>飞
+塔</t>
+  </si>
+  <si>
+    <t>TaiSui</t>
+  </si>
+  <si>
+    <t>太
+岁</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1284,6 +1414,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1668,10 +1801,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A81" sqref="$A81:$XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1681,24 +1814,24 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1794,10 +1927,10 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1805,10 +1938,10 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1816,10 +1949,10 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1827,10 +1960,10 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1838,10 +1971,10 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1849,21 +1982,21 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1926,10 +2059,10 @@
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1970,10 +2103,10 @@
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2014,10 +2147,10 @@
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2033,40 +2166,40 @@
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2080,10 +2213,10 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2091,32 +2224,32 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2124,10 +2257,10 @@
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2135,10 +2268,10 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2146,10 +2279,10 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2157,10 +2290,10 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2168,10 +2301,10 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2179,10 +2312,10 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2190,10 +2323,10 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2201,10 +2334,10 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2212,10 +2345,10 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2223,10 +2356,10 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2234,10 +2367,10 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2245,10 +2378,10 @@
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2256,10 +2389,10 @@
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2267,10 +2400,10 @@
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2278,10 +2411,10 @@
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2289,15 +2422,15 @@
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
@@ -2308,7 +2441,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -2319,7 +2452,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -2558,6 +2691,237 @@
       </c>
       <c r="C80" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" ht="42.75" spans="1:3">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" ht="28.5" spans="1:3">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" ht="28.5" spans="1:3">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" ht="28.5" spans="1:3">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2932,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="204">
   <si>
     <t>key</t>
   </si>
@@ -716,6 +716,12 @@
   <si>
     <t>太
 岁</t>
+  </si>
+  <si>
+    <t>QuXiaoXuanZhong</t>
+  </si>
+  <si>
+    <t>取消选中</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1414,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1801,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A81" sqref="$A81:$XFD101"/>
+      <selection activeCell="A102" sqref="$A102:$XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2730,10 +2733,10 @@
       <c r="A84" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2741,10 +2744,10 @@
       <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2906,10 +2909,10 @@
       <c r="A100" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2917,11 +2920,22 @@
       <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="9" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2946,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
   <si>
     <t>key</t>
   </si>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <t>取消选中</t>
+  </si>
+  <si>
+    <t>DeZhanJv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 的战局</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1420,6 +1426,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1804,10 +1813,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A102" sqref="$A102:$XFD102"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2938,6 +2947,17 @@
         <v>203</v>
       </c>
     </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
@@ -2946,7 +2966,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="218">
   <si>
     <t>key</t>
   </si>
@@ -728,6 +728,42 @@
   </si>
   <si>
     <t xml:space="preserve"> 的战局</t>
+  </si>
+  <si>
+    <t>JingTiKuang</t>
+  </si>
+  <si>
+    <t>晶体矿</t>
+  </si>
+  <si>
+    <t>RanQiKuang</t>
+  </si>
+  <si>
+    <t>燃气矿</t>
+  </si>
+  <si>
+    <t>YiKaiShiKuangXuanQingTuoDongHouFangKai</t>
+  </si>
+  <si>
+    <t>已开始框选，请拖动后放开</t>
+  </si>
+  <si>
+    <t>YiTuiChuKuangXuanZhuangTai</t>
+  </si>
+  <si>
+    <t>已退出框选状态</t>
+  </si>
+  <si>
+    <t>QuXiao</t>
+  </si>
+  <si>
+    <t>取  消</t>
+  </si>
+  <si>
+    <t>QueDing</t>
+  </si>
+  <si>
+    <t>确 定</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1426,9 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1813,15 +1846,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2948,7 +2981,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B103" t="s">
@@ -2956,6 +2989,72 @@
       </c>
       <c r="C103" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +3065,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="266">
   <si>
     <t>key</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>离开场景</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
   <si>
     <t>RenZaiXian</t>
@@ -764,6 +770,170 @@
   </si>
   <si>
     <t>确 定</t>
+  </si>
+  <si>
+    <t>QiangXingZou</t>
+  </si>
+  <si>
+    <t>强行走</t>
+  </si>
+  <si>
+    <t>YuanDiJianShou</t>
+  </si>
+  <si>
+    <t>原地
+坚守</t>
+  </si>
+  <si>
+    <t>GenSui</t>
+  </si>
+  <si>
+    <t>跟随</t>
+  </si>
+  <si>
+    <t>XunLuo</t>
+  </si>
+  <si>
+    <t>巡
+逻</t>
+  </si>
+  <si>
+    <t>LiKaiDiBao</t>
+  </si>
+  <si>
+    <t>离开
+地堡</t>
+  </si>
+  <si>
+    <t>LiKaiFangChong</t>
+  </si>
+  <si>
+    <t>离开房虫</t>
+  </si>
+  <si>
+    <t>JiJieDian</t>
+  </si>
+  <si>
+    <t>集结点</t>
+  </si>
+  <si>
+    <t>GongChengCheJiJieDian</t>
+  </si>
+  <si>
+    <t>工程车
+集结点</t>
+  </si>
+  <si>
+    <t>GongChongJiJieDian</t>
+  </si>
+  <si>
+    <t>工虫
+集结点</t>
+  </si>
+  <si>
+    <t>FangChongJiJieDian</t>
+  </si>
+  <si>
+    <t>房虫
+集结点</t>
+  </si>
+  <si>
+    <t>JieSuoJinZhanBing</t>
+  </si>
+  <si>
+    <t>解锁
+近战兵</t>
+  </si>
+  <si>
+    <t>JieSuoQiangChong</t>
+  </si>
+  <si>
+    <t>解锁
+枪虫</t>
+  </si>
+  <si>
+    <t>ShengJiQiangBingGongJi</t>
+  </si>
+  <si>
+    <t>升级
+枪兵
+攻击</t>
+  </si>
+  <si>
+    <t>ShengJiJinZhanBingFangYu</t>
+  </si>
+  <si>
+    <t>升级
+近战兵
+防御</t>
+  </si>
+  <si>
+    <t>ShengJiJinZhanChongGongJi</t>
+  </si>
+  <si>
+    <t>升级
+近战虫
+攻击</t>
+  </si>
+  <si>
+    <t>ShengJiQiangChongFangYu</t>
+  </si>
+  <si>
+    <t>升级
+枪虫
+防御</t>
+  </si>
+  <si>
+    <t>ShengJiTanKeYiSu</t>
+  </si>
+  <si>
+    <t>升级
+坦克
+移速</t>
+  </si>
+  <si>
+    <t>ShengJiFeiJiGongSu</t>
+  </si>
+  <si>
+    <t>升级
+飞机
+攻速</t>
+  </si>
+  <si>
+    <t>ShengJiTanKeGongSu</t>
+  </si>
+  <si>
+    <t>升级
+坦克
+攻速</t>
+  </si>
+  <si>
+    <t>ShengJiFeiChongYiSu</t>
+  </si>
+  <si>
+    <t>升级
+飞虫
+移速</t>
+  </si>
+  <si>
+    <t>TaiSuiFenLie</t>
+  </si>
+  <si>
+    <t>太岁
+分裂</t>
+  </si>
+  <si>
+    <t>ShanChuDanWei</t>
+  </si>
+  <si>
+    <t>删除
+单位</t>
+  </si>
+  <si>
+    <t>ZaiKanKan</t>
+  </si>
+  <si>
+    <t>再看看</t>
   </si>
 </sst>
 </file>
@@ -1846,10 +2016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2104,10 +2274,10 @@
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2115,10 +2285,10 @@
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2144,25 +2314,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:3">
-      <c r="A27" s="3" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:3">
-      <c r="A28" s="2" t="s">
+    <row r="28" s="3" customFormat="1" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2188,36 +2358,36 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="215.25" spans="1:3">
+    <row r="31" s="2" customFormat="1" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:3">
+    <row r="32" s="2" customFormat="1" ht="215.25" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="6" t="s">
+    <row r="33" s="2" customFormat="1" spans="1:3">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2243,25 +2413,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:3">
-      <c r="A36" s="10" t="s">
+    <row r="36" ht="28.5" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2277,7 +2447,7 @@
       </c>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -2287,25 +2457,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" ht="17.25" spans="1:3">
+    <row r="40" s="4" customFormat="1" spans="1:3">
       <c r="A40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2313,21 +2483,21 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:3">
+    <row r="43" s="4" customFormat="1" ht="17.25" spans="1:3">
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2474,14 +2644,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
+    <row r="57" s="4" customFormat="1" spans="1:3">
+      <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2508,7 +2678,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -2771,18 +2941,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" ht="42.75" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" ht="28.5" spans="1:3">
+    <row r="85" ht="42.75" spans="1:3">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -2793,14 +2963,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" ht="28.5" spans="1:3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2947,14 +3117,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" ht="28.5" spans="1:3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2969,19 +3139,19 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" ht="28.5" spans="1:3">
       <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="6" t="s">
+      <c r="A103" t="s">
         <v>204</v>
       </c>
       <c r="B103" t="s">
@@ -3017,10 +3187,10 @@
       <c r="A106" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3036,13 +3206,13 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3057,10 +3227,274 @@
         <v>217</v>
       </c>
     </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" ht="28.5" spans="1:3">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" ht="28.5" spans="1:3">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" ht="28.5" spans="1:3">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" ht="28.5" spans="1:3">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="1:3">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" ht="28.5" spans="1:3">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" ht="28.5" spans="1:3">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" ht="28.5" spans="1:3">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" ht="42.75" spans="1:3">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" ht="42.75" spans="1:3">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" ht="42.75" spans="1:3">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" ht="42.75" spans="1:3">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" ht="42.75" spans="1:3">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" ht="42.75" spans="1:3">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" ht="42.75" spans="1:3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" ht="42.75" spans="1:3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" ht="28.5" spans="1:3">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" ht="28.5" spans="1:3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C23" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="B24" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C24" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="425">
   <si>
     <t>key</t>
   </si>
@@ -935,6 +935,483 @@
   <si>
     <t>再看看</t>
   </si>
+  <si>
+    <t>GongJi</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>FangYu</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>YiDongSuDu</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>JingJieJvLi</t>
+  </si>
+  <si>
+    <t>警戒距离</t>
+  </si>
+  <si>
+    <t>GongJiJvLi</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>GongJiQianYao</t>
+  </si>
+  <si>
+    <t>攻击前摇</t>
+  </si>
+  <si>
+    <t>GongJiHouYao</t>
+  </si>
+  <si>
+    <t>攻击后摇</t>
+  </si>
+  <si>
+    <t>HaoMiao</t>
+  </si>
+  <si>
+    <t>毫秒</t>
+  </si>
+  <si>
+    <t>ChuShiHP</t>
+  </si>
+  <si>
+    <t>初始HP</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangDun</t>
+  </si>
+  <si>
+    <t>永久阻挡，不会损坏</t>
+  </si>
+  <si>
+    <t>MiaoShu_GongChengChe</t>
+  </si>
+  <si>
+    <t>可采集资源，可建造建筑</t>
+  </si>
+  <si>
+    <t>MiaoShu_QiangBing</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
+  </si>
+  <si>
+    <t>MiaoShu_JinZhanBing</t>
+  </si>
+  <si>
+    <t>近程攻击</t>
+  </si>
+  <si>
+    <t>MiaoShu_SanSeTanKe</t>
+  </si>
+  <si>
+    <t>超远距离范围攻击，前摇较长，克制炮台。爆炸溅射可能会伤害己方单位。</t>
+  </si>
+  <si>
+    <t>MiaoShu_GongChong</t>
+  </si>
+  <si>
+    <t>可采集资源，可变成建筑</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiJi</t>
+  </si>
+  <si>
+    <t>可飞越障碍物</t>
+  </si>
+  <si>
+    <t>MiaoShu_QiangChong</t>
+  </si>
+  <si>
+    <t>MiaoShu_JinZhanChong</t>
+  </si>
+  <si>
+    <t>MiaoShu_YouChong</t>
+  </si>
+  <si>
+    <t>可蜕变为其它活动单位</t>
+  </si>
+  <si>
+    <t>MiaoShu_LvSeTanKe</t>
+  </si>
+  <si>
+    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangChong</t>
+  </si>
+  <si>
+    <t>可增加活动单位上限</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiChong</t>
+  </si>
+  <si>
+    <t>可飞跃障碍物</t>
+  </si>
+  <si>
+    <t>MiaoShu_YiLiaoBing</t>
+  </si>
+  <si>
+    <t>可给友方单位恢复HP</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangKongBing</t>
+  </si>
+  <si>
+    <t>远程对空范围攻击，爆炸溅射会伤害己方单位，不可对地攻击</t>
+  </si>
+  <si>
+    <t>MiaoShu_JiDi</t>
+  </si>
+  <si>
+    <t>可产出工程车</t>
+  </si>
+  <si>
+    <t>MiaoShu_BingYing</t>
+  </si>
+  <si>
+    <t>可产出枪兵和近战兵</t>
+  </si>
+  <si>
+    <t>MiaoShu_MinFang</t>
+  </si>
+  <si>
+    <t>MiaoShu_DiBao</t>
+  </si>
+  <si>
+    <t>高HP，可派遣步兵进入地堡</t>
+  </si>
+  <si>
+    <t>MiaoShu_PaoTai</t>
+  </si>
+  <si>
+    <t>克制除了坦克以外的一切单位</t>
+  </si>
+  <si>
+    <t>MiaoShu_ChongChao</t>
+  </si>
+  <si>
+    <t>可产出幼虫</t>
+  </si>
+  <si>
+    <t>MiaoShu_JiChang</t>
+  </si>
+  <si>
+    <t>可产出飞机</t>
+  </si>
+  <si>
+    <t>MiaoShu_ZhongCheChang</t>
+  </si>
+  <si>
+    <t>可产出三色坦克</t>
+  </si>
+  <si>
+    <t>MiaoShu_ChongYing</t>
+  </si>
+  <si>
+    <t>近战虫和枪虫的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiTa</t>
+  </si>
+  <si>
+    <t>飞虫的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>MiaoShu_NiTaiYuan</t>
+  </si>
+  <si>
+    <t>绿色坦克的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>MiaoShu_TaiSui</t>
+  </si>
+  <si>
+    <t>可扩张苔蔓(wàn)，扩张完成后可分裂另一个太岁</t>
+  </si>
+  <si>
+    <t>Key特效</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>Key视口</t>
+  </si>
+  <si>
+    <t>视口</t>
+  </si>
+  <si>
+    <t>Key苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>Key方墩</t>
+  </si>
+  <si>
+    <t>Key晶体矿</t>
+  </si>
+  <si>
+    <t>Key燃气矿</t>
+  </si>
+  <si>
+    <t>Key工程车</t>
+  </si>
+  <si>
+    <t>工程车</t>
+  </si>
+  <si>
+    <t>Key枪兵</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>Key近战兵</t>
+  </si>
+  <si>
+    <t>近战兵</t>
+  </si>
+  <si>
+    <t>Key三色坦克</t>
+  </si>
+  <si>
+    <t>三色坦克</t>
+  </si>
+  <si>
+    <t>Key工虫</t>
+  </si>
+  <si>
+    <t>工虫</t>
+  </si>
+  <si>
+    <t>Key飞机</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>Key枪虫</t>
+  </si>
+  <si>
+    <t>枪虫</t>
+  </si>
+  <si>
+    <t>Key近战虫</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>Key幼虫</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>Key绿色坦克</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>Key光刺</t>
+  </si>
+  <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>Key房虫</t>
+  </si>
+  <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>Key飞虫</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>Key医疗兵</t>
+  </si>
+  <si>
+    <t>医疗兵</t>
+  </si>
+  <si>
+    <t>Key防空兵</t>
+  </si>
+  <si>
+    <t>防空兵</t>
+  </si>
+  <si>
+    <t>Key基地</t>
+  </si>
+  <si>
+    <t>Key兵营</t>
+  </si>
+  <si>
+    <t>Key民房</t>
+  </si>
+  <si>
+    <t>Key地堡</t>
+  </si>
+  <si>
+    <t>Key炮台</t>
+  </si>
+  <si>
+    <t>Key虫巢</t>
+  </si>
+  <si>
+    <t>Key机场</t>
+  </si>
+  <si>
+    <t>Key重车厂</t>
+  </si>
+  <si>
+    <t>Key虫营</t>
+  </si>
+  <si>
+    <t>Key飞塔</t>
+  </si>
+  <si>
+    <t>飞塔</t>
+  </si>
+  <si>
+    <t>Key拟态源</t>
+  </si>
+  <si>
+    <t>Key太岁</t>
+  </si>
+  <si>
+    <t>太岁</t>
+  </si>
+  <si>
+    <t>Key枪虫怪</t>
+  </si>
+  <si>
+    <t>枪虫怪</t>
+  </si>
+  <si>
+    <t>Key近战虫怪</t>
+  </si>
+  <si>
+    <t>近战虫怪</t>
+  </si>
+  <si>
+    <t>Key工虫怪</t>
+  </si>
+  <si>
+    <t>工虫怪</t>
+  </si>
+  <si>
+    <t>Key枪兵怪</t>
+  </si>
+  <si>
+    <t>枪兵怪</t>
+  </si>
+  <si>
+    <t>Key近战兵怪</t>
+  </si>
+  <si>
+    <t>近战兵怪</t>
+  </si>
+  <si>
+    <t>Key工程车怪</t>
+  </si>
+  <si>
+    <t>工程车怪</t>
+  </si>
+  <si>
+    <t>Key幼虫怪</t>
+  </si>
+  <si>
+    <t>幼虫怪</t>
+  </si>
+  <si>
+    <t>Key飞虫怪</t>
+  </si>
+  <si>
+    <t>飞虫怪</t>
+  </si>
+  <si>
+    <t>Key绿色坦克怪</t>
+  </si>
+  <si>
+    <t>绿色坦克怪</t>
+  </si>
+  <si>
+    <t>Key房虫怪</t>
+  </si>
+  <si>
+    <t>房虫怪</t>
+  </si>
+  <si>
+    <t>Key防空兵怪</t>
+  </si>
+  <si>
+    <t>防空兵怪</t>
+  </si>
+  <si>
+    <t>Mi_Miao</t>
+  </si>
+  <si>
+    <t>米/秒</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiJianZhu</t>
+  </si>
+  <si>
+    <t>请点击地面放置建筑</t>
+  </si>
+  <si>
+    <t>请点击要跟随的目标单位</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiXunLvDian</t>
+  </si>
+  <si>
+    <t>请点击地面设置巡逻点</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiQiangZouXingDiMuDi</t>
+  </si>
+  <si>
+    <t>强行走过程不会攻击敌人，请点击地面确定目的地</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiSheZhiCiJianZhuChanChuHuoDongDanWeiDeJiJiDian</t>
+  </si>
+  <si>
+    <t>请点击地面设置此建筑产出活动单位的集结点</t>
+  </si>
+  <si>
+    <t>QingZaiPingMuShangTuoDongYiKuangXuanDanWei</t>
+  </si>
+  <si>
+    <t>请在屏幕上拖动以框选单位</t>
+  </si>
+  <si>
+    <t>QingZaiXuanZhongTaiShuiDeTaiManWanShangFangZhiFenLieDeTaiShui</t>
+  </si>
+  <si>
+    <t>请在选中太岁的苔蔓(wàn)上放置分裂的太岁</t>
+  </si>
 </sst>
 </file>
 
@@ -946,7 +1423,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1010,8 +1487,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1153,12 +1666,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1456,152 +1975,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1632,6 +2151,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2016,15 +2568,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="42.75" customWidth="1"/>
+    <col min="1" max="1" width="68.625" customWidth="1"/>
     <col min="2" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3489,6 +4041,974 @@
       </c>
       <c r="C133" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="B207" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B213" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B214" t="s">
+        <v>411</v>
+      </c>
+      <c r="C214" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B215" t="s">
+        <v>413</v>
+      </c>
+      <c r="C215" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B216" t="s">
+        <v>414</v>
+      </c>
+      <c r="C216" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B217" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B218" t="s">
+        <v>418</v>
+      </c>
+      <c r="C218" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B219" t="s">
+        <v>420</v>
+      </c>
+      <c r="C219" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B220" t="s">
+        <v>422</v>
+      </c>
+      <c r="C220" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B221" t="s">
+        <v>424</v>
+      </c>
+      <c r="C221" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +5019,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="451">
   <si>
     <t>key</t>
   </si>
@@ -178,7 +178,38 @@
     <t>urlGameStrategy</t>
   </si>
   <si>
-    <t>即时战略指挥攻略/帮助.txt</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即时战略指挥攻略/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻略</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
   </si>
   <si>
     <t>ConnectSuccess</t>
@@ -1412,6 +1443,122 @@
   <si>
     <t>请在选中太岁的苔蔓(wàn)上放置分裂的太岁</t>
   </si>
+  <si>
+    <t>SheZhi</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>JingTouTouYing</t>
+  </si>
+  <si>
+    <t>镜头投影</t>
+  </si>
+  <si>
+    <t>KuangXuanMoShi</t>
+  </si>
+  <si>
+    <t>框选模式</t>
+  </si>
+  <si>
+    <t>ShiKouFangDa</t>
+  </si>
+  <si>
+    <t>视口放大</t>
+  </si>
+  <si>
+    <t>ShiKouSuoXiao</t>
+  </si>
+  <si>
+    <t>视口缩小</t>
+  </si>
+  <si>
+    <t>DianJiZhuiJiaZuanZhong</t>
+  </si>
+  <si>
+    <t>点击单位都是追加选中</t>
+  </si>
+  <si>
+    <t>XianShiMingZi</t>
+  </si>
+  <si>
+    <t>显示名字</t>
+  </si>
+  <si>
+    <t>MingZiXianShiDanWeiLeiXing</t>
+  </si>
+  <si>
+    <t>名字里显示单位类型</t>
+  </si>
+  <si>
+    <t>LingXingKuangXuan</t>
+  </si>
+  <si>
+    <t>菱形框选</t>
+  </si>
+  <si>
+    <t>ZhengJuXingKuangXuan</t>
+  </si>
+  <si>
+    <t>正矩形框选</t>
+  </si>
+  <si>
+    <t>MoShi</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>YiQieHuanDao</t>
+  </si>
+  <si>
+    <t>已切换到</t>
+  </si>
+  <si>
+    <t>YiTianJiaWeiXunLvDian</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 已添加为巡逻点，请继续点击地面添加巡逻点，或点击</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交巡逻点列表</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1423,7 +1570,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1661,6 +1808,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2120,19 +2280,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2179,10 +2340,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2568,10 +2729,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A234" sqref="$A234:$XFD234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2694,10 +2855,10 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2705,10 +2866,10 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2716,10 +2877,10 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2727,10 +2888,10 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2738,10 +2899,10 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2749,21 +2910,21 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2837,10 +2998,10 @@
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2881,10 +3042,10 @@
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2925,10 +3086,10 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2944,40 +3105,40 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2991,10 +3152,10 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3002,32 +3163,32 @@
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3035,10 +3196,10 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3046,10 +3207,10 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3057,10 +3218,10 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3068,10 +3229,10 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3079,10 +3240,10 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3090,10 +3251,10 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3101,10 +3262,10 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3112,10 +3273,10 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3123,10 +3284,10 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3134,10 +3295,10 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3145,10 +3306,10 @@
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3156,10 +3317,10 @@
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3167,10 +3328,10 @@
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3178,10 +3339,10 @@
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3189,10 +3350,10 @@
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3200,15 +3361,15 @@
       <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -3219,7 +3380,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -3230,7 +3391,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -3508,10 +3669,10 @@
       <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3519,10 +3680,10 @@
       <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3684,10 +3845,10 @@
       <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3695,10 +3856,10 @@
       <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3714,7 +3875,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B104" t="s">
@@ -3725,7 +3886,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
@@ -3736,7 +3897,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
@@ -3747,24 +3908,24 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3805,10 +3966,10 @@
       <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3827,10 +3988,10 @@
       <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3838,10 +3999,10 @@
       <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3871,10 +4032,10 @@
       <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="10" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3882,10 +4043,10 @@
       <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3893,10 +4054,10 @@
       <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3904,10 +4065,10 @@
       <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3915,10 +4076,10 @@
       <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3926,10 +4087,10 @@
       <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3937,10 +4098,10 @@
       <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3948,10 +4109,10 @@
       <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3959,10 +4120,10 @@
       <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3970,10 +4131,10 @@
       <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="10" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3981,10 +4142,10 @@
       <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3992,10 +4153,10 @@
       <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4003,10 +4164,10 @@
       <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4014,10 +4175,10 @@
       <c r="A131" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="10" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4025,10 +4186,10 @@
       <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4047,10 +4208,10 @@
       <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="16" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4058,10 +4219,10 @@
       <c r="A135" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="16" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4069,10 +4230,10 @@
       <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="16" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4080,10 +4241,10 @@
       <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="7" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4091,10 +4252,10 @@
       <c r="A138" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="7" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4102,10 +4263,10 @@
       <c r="A139" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="7" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4113,10 +4274,10 @@
       <c r="A140" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="7" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4124,10 +4285,10 @@
       <c r="A141" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="7" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4135,10 +4296,10 @@
       <c r="A142" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="7" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4146,10 +4307,10 @@
       <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="17" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4157,10 +4318,10 @@
       <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4168,10 +4329,10 @@
       <c r="A145" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="19" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4179,10 +4340,10 @@
       <c r="A146" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="18" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4190,10 +4351,10 @@
       <c r="A147" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="18" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4201,10 +4362,10 @@
       <c r="A148" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="18" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4212,10 +4373,10 @@
       <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="18" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4223,10 +4384,10 @@
       <c r="A150" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="18" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4234,10 +4395,10 @@
       <c r="A151" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="18" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4245,10 +4406,10 @@
       <c r="A152" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="18" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4256,10 +4417,10 @@
       <c r="A153" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="18" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4267,10 +4428,10 @@
       <c r="A154" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="18" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4278,10 +4439,10 @@
       <c r="A155" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="18" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4289,10 +4450,10 @@
       <c r="A156" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="18" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4300,10 +4461,10 @@
       <c r="A157" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="18" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4311,10 +4472,10 @@
       <c r="A158" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="17" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4322,10 +4483,10 @@
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="17" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4333,10 +4494,10 @@
       <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4344,10 +4505,10 @@
       <c r="A161" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="17" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4355,10 +4516,10 @@
       <c r="A162" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="17" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4366,10 +4527,10 @@
       <c r="A163" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="17" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4377,10 +4538,10 @@
       <c r="A164" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="17" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4388,10 +4549,10 @@
       <c r="A165" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="17" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4399,10 +4560,10 @@
       <c r="A166" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="17" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4410,10 +4571,10 @@
       <c r="A167" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="17" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4421,10 +4582,10 @@
       <c r="A168" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="17" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4432,499 +4593,499 @@
       <c r="A169" t="s">
         <v>333</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="17" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="20" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="20" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="21" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="20" t="s">
+      <c r="B173" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="21" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="22" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="22" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="22" t="s">
+      <c r="A176" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="22" t="s">
+      <c r="B176" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="23" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="22" t="s">
+      <c r="A178" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="23" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="23" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="22" t="s">
+      <c r="A180" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="23" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="22" t="s">
+      <c r="C181" s="23" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="22" t="s">
+      <c r="A182" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="23" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="22" t="s">
+      <c r="A183" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="22" t="s">
+      <c r="A184" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="23" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="22" t="s">
+      <c r="A185" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="23" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="22" t="s">
+      <c r="A186" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="23" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="23" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="22" t="s">
+      <c r="A188" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="22" t="s">
+      <c r="A189" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="23" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="23" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B191" s="20" t="s">
+      <c r="B191" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="B192" s="20" t="s">
+      <c r="B192" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B193" s="20" t="s">
+      <c r="B193" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="21" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="20" t="s">
+      <c r="B194" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="21" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="20" t="s">
+      <c r="A195" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="B195" s="20" t="s">
+      <c r="B195" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C195" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="B196" s="20" t="s">
+      <c r="B196" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B197" s="20" t="s">
+      <c r="B197" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="20" t="s">
+      <c r="B198" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="20" t="s">
+      <c r="B199" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B200" s="20" t="s">
+      <c r="B200" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B202" s="20" t="s">
+      <c r="B202" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="21" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="22" t="s">
+      <c r="A203" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="22" t="s">
+      <c r="A204" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="23" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="22" t="s">
+      <c r="A205" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="23" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="23" t="s">
+      <c r="A206" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="C206" s="24" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="22" t="s">
+      <c r="A207" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="23" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="22" t="s">
+      <c r="A208" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="23" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="22" t="s">
+      <c r="A210" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="23" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="22" t="s">
+      <c r="A211" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="23" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="22" t="s">
+      <c r="A212" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="23" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="22" t="s">
+      <c r="A213" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B213" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="23" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="7" t="s">
         <v>410</v>
       </c>
       <c r="B214" t="s">
@@ -4935,7 +5096,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B215" t="s">
@@ -4946,7 +5107,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B216" t="s">
@@ -4957,7 +5118,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B217" t="s">
@@ -4968,7 +5129,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B218" t="s">
@@ -4979,7 +5140,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="7" t="s">
         <v>419</v>
       </c>
       <c r="B219" t="s">
@@ -4990,7 +5151,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="24" t="s">
+      <c r="A220" s="7" t="s">
         <v>421</v>
       </c>
       <c r="B220" t="s">
@@ -5001,7 +5162,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="7" t="s">
         <v>423</v>
       </c>
       <c r="B221" t="s">
@@ -5011,10 +5172,153 @@
         <v>424</v>
       </c>
     </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>425</v>
+      </c>
+      <c r="B222" t="s">
+        <v>426</v>
+      </c>
+      <c r="C222" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>427</v>
+      </c>
+      <c r="B223" t="s">
+        <v>428</v>
+      </c>
+      <c r="C223" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>429</v>
+      </c>
+      <c r="B224" t="s">
+        <v>430</v>
+      </c>
+      <c r="C224" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>431</v>
+      </c>
+      <c r="B225" t="s">
+        <v>432</v>
+      </c>
+      <c r="C225" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>433</v>
+      </c>
+      <c r="B226" t="s">
+        <v>434</v>
+      </c>
+      <c r="C226" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>435</v>
+      </c>
+      <c r="B227" t="s">
+        <v>436</v>
+      </c>
+      <c r="C227" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>437</v>
+      </c>
+      <c r="B228" t="s">
+        <v>438</v>
+      </c>
+      <c r="C228" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>439</v>
+      </c>
+      <c r="B229" t="s">
+        <v>440</v>
+      </c>
+      <c r="C229" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B230" t="s">
+        <v>442</v>
+      </c>
+      <c r="C230" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B231" t="s">
+        <v>444</v>
+      </c>
+      <c r="C231" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B232" t="s">
+        <v>446</v>
+      </c>
+      <c r="C232" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" t="s">
+        <v>448</v>
+      </c>
+      <c r="C233" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="234" s="5" customFormat="1" spans="1:3">
+      <c r="A234" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B234" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C24" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="B24" r:id="rId1" display="即时战略指挥攻略/攻略.txt"/>
+    <hyperlink ref="C24" r:id="rId1" display="即时战略指挥攻略/攻略.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -1174,226 +1174,226 @@
     <t>可扩张苔蔓(wàn)，扩张完成后可分裂另一个太岁</t>
   </si>
   <si>
-    <t>Key特效</t>
+    <t>KeyTeXiao</t>
   </si>
   <si>
     <t>特效</t>
   </si>
   <si>
-    <t>Key视口</t>
+    <t>KeyShiKou</t>
   </si>
   <si>
     <t>视口</t>
   </si>
   <si>
-    <t>Key苔蔓(wàn)</t>
+    <t>KeyTaiWan</t>
   </si>
   <si>
     <t>苔蔓(wàn)</t>
   </si>
   <si>
-    <t>Key方墩</t>
-  </si>
-  <si>
-    <t>Key晶体矿</t>
-  </si>
-  <si>
-    <t>Key燃气矿</t>
-  </si>
-  <si>
-    <t>Key工程车</t>
+    <t>KeyFangDun</t>
+  </si>
+  <si>
+    <t>KeyJingTiKuang</t>
+  </si>
+  <si>
+    <t>KeyRanQiKuang</t>
+  </si>
+  <si>
+    <t>KeyGongChengChe</t>
   </si>
   <si>
     <t>工程车</t>
   </si>
   <si>
-    <t>Key枪兵</t>
+    <t>KeyQiangBing</t>
   </si>
   <si>
     <t>枪兵</t>
   </si>
   <si>
-    <t>Key近战兵</t>
+    <t>KeyJinZhanBing</t>
   </si>
   <si>
     <t>近战兵</t>
   </si>
   <si>
-    <t>Key三色坦克</t>
+    <t>KeySanSeTanKe</t>
   </si>
   <si>
     <t>三色坦克</t>
   </si>
   <si>
-    <t>Key工虫</t>
+    <t>KeyGongChong</t>
   </si>
   <si>
     <t>工虫</t>
   </si>
   <si>
-    <t>Key飞机</t>
+    <t>KeyFeiJi</t>
   </si>
   <si>
     <t>飞机</t>
   </si>
   <si>
-    <t>Key枪虫</t>
+    <t>KeyQiangChong</t>
   </si>
   <si>
     <t>枪虫</t>
   </si>
   <si>
-    <t>Key近战虫</t>
+    <t>KeyJinZhanChong</t>
   </si>
   <si>
     <t>近战虫</t>
   </si>
   <si>
-    <t>Key幼虫</t>
+    <t>KeyYouChong</t>
   </si>
   <si>
     <t>幼虫</t>
   </si>
   <si>
-    <t>Key绿色坦克</t>
+    <t>KeyLvSeTanKe</t>
   </si>
   <si>
     <t>绿色坦克</t>
   </si>
   <si>
-    <t>Key光刺</t>
+    <t>KeyGuangCi</t>
   </si>
   <si>
     <t>光刺</t>
   </si>
   <si>
-    <t>Key房虫</t>
+    <t>KeyFangChong</t>
   </si>
   <si>
     <t>房虫</t>
   </si>
   <si>
-    <t>Key飞虫</t>
+    <t>KeyFeiChong</t>
   </si>
   <si>
     <t>飞虫</t>
   </si>
   <si>
-    <t>Key医疗兵</t>
+    <t>KeyYiLiaoBing</t>
   </si>
   <si>
     <t>医疗兵</t>
   </si>
   <si>
-    <t>Key防空兵</t>
+    <t>KeyFangKongBing</t>
   </si>
   <si>
     <t>防空兵</t>
   </si>
   <si>
-    <t>Key基地</t>
-  </si>
-  <si>
-    <t>Key兵营</t>
-  </si>
-  <si>
-    <t>Key民房</t>
-  </si>
-  <si>
-    <t>Key地堡</t>
-  </si>
-  <si>
-    <t>Key炮台</t>
-  </si>
-  <si>
-    <t>Key虫巢</t>
-  </si>
-  <si>
-    <t>Key机场</t>
-  </si>
-  <si>
-    <t>Key重车厂</t>
-  </si>
-  <si>
-    <t>Key虫营</t>
-  </si>
-  <si>
-    <t>Key飞塔</t>
+    <t>KeyJiDi</t>
+  </si>
+  <si>
+    <t>KeyBingYing</t>
+  </si>
+  <si>
+    <t>KeyMinFang</t>
+  </si>
+  <si>
+    <t>KeyDiBao</t>
+  </si>
+  <si>
+    <t>KeyPaoTai</t>
+  </si>
+  <si>
+    <t>KeyChongChao</t>
+  </si>
+  <si>
+    <t>KeyJiChang</t>
+  </si>
+  <si>
+    <t>KeyZhongCheChang</t>
+  </si>
+  <si>
+    <t>KeyChongYing</t>
+  </si>
+  <si>
+    <t>KeyFeiTa</t>
   </si>
   <si>
     <t>飞塔</t>
   </si>
   <si>
-    <t>Key拟态源</t>
-  </si>
-  <si>
-    <t>Key太岁</t>
+    <t>KeyNiTaiYuan</t>
+  </si>
+  <si>
+    <t>KeyTaiSui</t>
   </si>
   <si>
     <t>太岁</t>
   </si>
   <si>
-    <t>Key枪虫怪</t>
+    <t>KeyQiangChongGuai</t>
   </si>
   <si>
     <t>枪虫怪</t>
   </si>
   <si>
-    <t>Key近战虫怪</t>
+    <t>KeyJinZhanCHongGuai</t>
   </si>
   <si>
     <t>近战虫怪</t>
   </si>
   <si>
-    <t>Key工虫怪</t>
+    <t>KeyGongChongGuai</t>
   </si>
   <si>
     <t>工虫怪</t>
   </si>
   <si>
-    <t>Key枪兵怪</t>
+    <t>KeyQiangBingGuai</t>
   </si>
   <si>
     <t>枪兵怪</t>
   </si>
   <si>
-    <t>Key近战兵怪</t>
+    <t>KeyJinZhanBingGuai</t>
   </si>
   <si>
     <t>近战兵怪</t>
   </si>
   <si>
-    <t>Key工程车怪</t>
+    <t>KeyGongChengCheGuai</t>
   </si>
   <si>
     <t>工程车怪</t>
   </si>
   <si>
-    <t>Key幼虫怪</t>
+    <t>KeyYouChongGuai</t>
   </si>
   <si>
     <t>幼虫怪</t>
   </si>
   <si>
-    <t>Key飞虫怪</t>
+    <t>KeyFeiChongGuai</t>
   </si>
   <si>
     <t>飞虫怪</t>
   </si>
   <si>
-    <t>Key绿色坦克怪</t>
+    <t>KeyLvSeTanKeGuai</t>
   </si>
   <si>
     <t>绿色坦克怪</t>
   </si>
   <si>
-    <t>Key房虫怪</t>
+    <t>KeyFangChongGuai</t>
   </si>
   <si>
     <t>房虫怪</t>
   </si>
   <si>
-    <t>Key防空兵怪</t>
+    <t>KeyFangKongBingGuai</t>
   </si>
   <si>
     <t>防空兵怪</t>
@@ -1520,6 +1520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 已添加为巡逻点，请继续点击地面添加巡逻点，或点击</t>
     </r>
     <r>
@@ -1813,17 +1819,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2280,13 +2286,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2339,12 +2344,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2731,8 +2730,8 @@
   <sheetPr/>
   <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A234" sqref="$A234:$XFD234"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2855,10 +2854,10 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2866,10 +2865,10 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2877,10 +2876,10 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2888,10 +2887,10 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2899,10 +2898,10 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2910,21 +2909,21 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2998,10 +2997,10 @@
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3042,10 +3041,10 @@
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3086,10 +3085,10 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3105,40 +3104,40 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3152,10 +3151,10 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3163,32 +3162,32 @@
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3196,10 +3195,10 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3207,10 +3206,10 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3218,10 +3217,10 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3229,10 +3228,10 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3240,10 +3239,10 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3251,10 +3250,10 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3262,10 +3261,10 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3273,10 +3272,10 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3284,10 +3283,10 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3295,10 +3294,10 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3306,10 +3305,10 @@
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3317,10 +3316,10 @@
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3328,10 +3327,10 @@
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3339,10 +3338,10 @@
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3350,10 +3349,10 @@
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3361,15 +3360,15 @@
       <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -3380,7 +3379,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -3391,7 +3390,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -3669,10 +3668,10 @@
       <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3680,10 +3679,10 @@
       <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3845,10 +3844,10 @@
       <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3856,10 +3855,10 @@
       <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3875,7 +3874,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B104" t="s">
@@ -3886,7 +3885,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
@@ -3897,7 +3896,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
@@ -3908,24 +3907,24 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3966,10 +3965,10 @@
       <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3988,10 +3987,10 @@
       <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3999,10 +3998,10 @@
       <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="9" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4032,10 +4031,10 @@
       <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4043,10 +4042,10 @@
       <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4054,10 +4053,10 @@
       <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4065,10 +4064,10 @@
       <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4076,10 +4075,10 @@
       <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="9" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4087,10 +4086,10 @@
       <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4098,10 +4097,10 @@
       <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4109,10 +4108,10 @@
       <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4120,10 +4119,10 @@
       <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4131,10 +4130,10 @@
       <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4142,10 +4141,10 @@
       <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4153,10 +4152,10 @@
       <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4164,10 +4163,10 @@
       <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4175,10 +4174,10 @@
       <c r="A131" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4186,10 +4185,10 @@
       <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="9" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4208,10 +4207,10 @@
       <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="15" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4219,10 +4218,10 @@
       <c r="A135" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4230,10 +4229,10 @@
       <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="15" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4241,10 +4240,10 @@
       <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4252,10 +4251,10 @@
       <c r="A138" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4263,10 +4262,10 @@
       <c r="A139" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4274,10 +4273,10 @@
       <c r="A140" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4285,10 +4284,10 @@
       <c r="A141" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4296,10 +4295,10 @@
       <c r="A142" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4307,10 +4306,10 @@
       <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4318,10 +4317,10 @@
       <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="17" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4329,10 +4328,10 @@
       <c r="A145" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="18" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4340,10 +4339,10 @@
       <c r="A146" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="17" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4351,10 +4350,10 @@
       <c r="A147" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="17" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4362,10 +4361,10 @@
       <c r="A148" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="17" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4373,10 +4372,10 @@
       <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="17" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4384,10 +4383,10 @@
       <c r="A150" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4395,10 +4394,10 @@
       <c r="A151" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4406,10 +4405,10 @@
       <c r="A152" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="17" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4417,10 +4416,10 @@
       <c r="A153" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4428,10 +4427,10 @@
       <c r="A154" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4439,10 +4438,10 @@
       <c r="A155" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="17" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4450,10 +4449,10 @@
       <c r="A156" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="17" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4461,10 +4460,10 @@
       <c r="A157" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4472,10 +4471,10 @@
       <c r="A158" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4483,10 +4482,10 @@
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4494,10 +4493,10 @@
       <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4505,10 +4504,10 @@
       <c r="A161" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4516,10 +4515,10 @@
       <c r="A162" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="16" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4527,10 +4526,10 @@
       <c r="A163" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4538,10 +4537,10 @@
       <c r="A164" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4549,10 +4548,10 @@
       <c r="A165" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="16" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4560,10 +4559,10 @@
       <c r="A166" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4571,10 +4570,10 @@
       <c r="A167" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="16" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4582,10 +4581,10 @@
       <c r="A168" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4593,499 +4592,499 @@
       <c r="A169" t="s">
         <v>333</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="19" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="19" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B173" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="22" t="s">
+      <c r="A174" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="21" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="22" t="s">
+      <c r="A175" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C175" s="22" t="s">
+      <c r="C175" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="23" t="s">
+      <c r="A176" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="23" t="s">
+      <c r="B176" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="22" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="24" t="s">
+      <c r="A177" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="23" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="22" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="22" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="22" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="23" t="s">
+      <c r="A181" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="22" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="23" t="s">
+      <c r="A183" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="C183" s="22" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="23" t="s">
+      <c r="A184" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="22" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="23" t="s">
+      <c r="A185" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" s="22" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="23" t="s">
+      <c r="A186" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="22" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="23" t="s">
+      <c r="C187" s="22" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="23" t="s">
+      <c r="A188" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C188" s="23" t="s">
+      <c r="C188" s="22" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="23" t="s">
+      <c r="A189" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="C189" s="23" t="s">
+      <c r="C189" s="22" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="23" t="s">
+      <c r="A190" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="B190" s="23" t="s">
+      <c r="B190" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C193" s="21" t="s">
+      <c r="C193" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B195" s="21" t="s">
+      <c r="B195" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B196" s="21" t="s">
+      <c r="B196" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B197" s="21" t="s">
+      <c r="B197" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="20" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="22" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="23" t="s">
+      <c r="A204" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="B204" s="23" t="s">
+      <c r="B204" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="C204" s="22" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="23" t="s">
+      <c r="A205" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="23" t="s">
+      <c r="C205" s="22" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="C206" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="23" t="s">
+      <c r="A207" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="22" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="23" t="s">
+      <c r="A208" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C208" s="22" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="23" t="s">
+      <c r="A209" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="23" t="s">
+      <c r="B209" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="23" t="s">
+      <c r="C209" s="22" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="23" t="s">
+      <c r="A210" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="23" t="s">
+      <c r="C210" s="22" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="23" t="s">
+      <c r="A211" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="22" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="23" t="s">
+      <c r="A212" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C212" s="22" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="23" t="s">
+      <c r="A213" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="C213" s="22" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="6" t="s">
         <v>410</v>
       </c>
       <c r="B214" t="s">
@@ -5096,7 +5095,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="6" t="s">
         <v>412</v>
       </c>
       <c r="B215" t="s">
@@ -5107,7 +5106,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="6" t="s">
         <v>412</v>
       </c>
       <c r="B216" t="s">
@@ -5118,7 +5117,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="6" t="s">
         <v>415</v>
       </c>
       <c r="B217" t="s">
@@ -5129,7 +5128,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="6" t="s">
         <v>417</v>
       </c>
       <c r="B218" t="s">
@@ -5140,7 +5139,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="6" t="s">
         <v>419</v>
       </c>
       <c r="B219" t="s">
@@ -5151,7 +5150,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B220" t="s">
@@ -5162,7 +5161,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B221" t="s">
@@ -5261,7 +5260,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="6" t="s">
         <v>441</v>
       </c>
       <c r="B230" t="s">
@@ -5272,7 +5271,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="6" t="s">
         <v>443</v>
       </c>
       <c r="B231" t="s">
@@ -5283,7 +5282,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B232" t="s">
@@ -5294,7 +5293,7 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="6" t="s">
         <v>447</v>
       </c>
       <c r="B233" t="s">
@@ -5304,14 +5303,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="234" s="5" customFormat="1" spans="1:3">
-      <c r="A234" s="25" t="s">
+    <row r="234" s="4" customFormat="1" spans="1:3">
+      <c r="A234" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B234" s="26" t="s">
+      <c r="B234" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C234" s="26" t="s">
+      <c r="C234" s="8" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5323,7 +5322,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="452">
   <si>
     <t>key</t>
   </si>
@@ -1409,6 +1409,9 @@
   </si>
   <si>
     <t>请点击地面放置建筑</t>
+  </si>
+  <si>
+    <t>QingDianJiYaoGenSuiDeMuBiaoDanWei</t>
   </si>
   <si>
     <t>请点击要跟随的目标单位</t>
@@ -2286,7 +2289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2344,6 +2347,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2731,7 +2737,7 @@
   <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:A213"/>
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5106,212 +5112,212 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="6" t="s">
-        <v>412</v>
+      <c r="A216" s="24" t="s">
+        <v>414</v>
       </c>
       <c r="B216" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C216" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B217" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C217" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B218" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C218" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B219" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C219" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B220" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C220" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B221" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C221" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B222" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C222" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B223" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C223" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B224" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C224" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B225" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C225" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B226" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C226" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B227" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B228" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C228" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B229" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C229" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B230" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C230" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B231" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C231" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B232" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C232" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B233" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C233" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" spans="1:3">
       <c r="A234" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5322,7 +5328,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="472">
   <si>
     <t>key</t>
   </si>
@@ -1568,6 +1568,66 @@
       <t>提交巡逻点列表</t>
     </r>
   </si>
+  <si>
+    <t>MeiYouKeYiDongDeZhanDouDanWei</t>
+  </si>
+  <si>
+    <t>没有可移动的战斗单位</t>
+  </si>
+  <si>
+    <t>QingXianXuanZhongJianZhuDanWei</t>
+  </si>
+  <si>
+    <t>请先选中活动单位</t>
+  </si>
+  <si>
+    <t>QingXianXuanZhongTaiShui</t>
+  </si>
+  <si>
+    <t>请先选中太岁</t>
+  </si>
+  <si>
+    <t>ZhanBaoBuCunZai</t>
+  </si>
+  <si>
+    <t>战报不存在</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 的 </t>
+  </si>
+  <si>
+    <t>JiBaiLe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 击败了 </t>
+  </si>
+  <si>
+    <t>BeiJiBaiDanWeiShu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 被击败单位数</t>
+  </si>
+  <si>
+    <t>GongSunShi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 共损失 </t>
+  </si>
+  <si>
+    <t>JiBaiDanWeiShu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 击败单位数 </t>
+  </si>
+  <si>
+    <t>GongJiBai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 共击败 </t>
+  </si>
 </sst>
 </file>
 
@@ -1579,7 +1639,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1684,6 +1744,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1822,17 +1887,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2162,139 +2227,140 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2347,6 +2413,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2734,10 +2812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2860,10 +2938,10 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2871,10 +2949,10 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2882,10 +2960,10 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2893,10 +2971,10 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2904,10 +2982,10 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2915,21 +2993,21 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3003,10 +3081,10 @@
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3047,10 +3125,10 @@
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3091,10 +3169,10 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3110,40 +3188,40 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3157,10 +3235,10 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3168,32 +3246,32 @@
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3201,10 +3279,10 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3212,10 +3290,10 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3223,10 +3301,10 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3234,10 +3312,10 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3245,10 +3323,10 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3256,10 +3334,10 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3267,10 +3345,10 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3278,10 +3356,10 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3289,10 +3367,10 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3300,10 +3378,10 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3311,10 +3389,10 @@
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3322,10 +3400,10 @@
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3333,10 +3411,10 @@
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3344,10 +3422,10 @@
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3355,10 +3433,10 @@
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3366,15 +3444,15 @@
       <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -3385,7 +3463,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -3396,7 +3474,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -3674,10 +3752,10 @@
       <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3685,10 +3763,10 @@
       <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3850,10 +3928,10 @@
       <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3861,10 +3939,10 @@
       <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3880,7 +3958,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B104" t="s">
@@ -3891,7 +3969,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
@@ -3902,7 +3980,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
@@ -3913,24 +3991,24 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3971,10 +4049,10 @@
       <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3993,10 +4071,10 @@
       <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4004,10 +4082,10 @@
       <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4037,10 +4115,10 @@
       <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="10" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4048,10 +4126,10 @@
       <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4059,10 +4137,10 @@
       <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4070,10 +4148,10 @@
       <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4081,10 +4159,10 @@
       <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4092,10 +4170,10 @@
       <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4103,10 +4181,10 @@
       <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4114,10 +4192,10 @@
       <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4125,10 +4203,10 @@
       <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4136,10 +4214,10 @@
       <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="10" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4147,10 +4225,10 @@
       <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4158,10 +4236,10 @@
       <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4169,10 +4247,10 @@
       <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4180,10 +4258,10 @@
       <c r="A131" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="10" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4191,10 +4269,10 @@
       <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4213,10 +4291,10 @@
       <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="16" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4224,10 +4302,10 @@
       <c r="A135" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="16" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4235,10 +4313,10 @@
       <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="16" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4246,10 +4324,10 @@
       <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="7" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4257,10 +4335,10 @@
       <c r="A138" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="7" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4268,10 +4346,10 @@
       <c r="A139" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="7" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4279,10 +4357,10 @@
       <c r="A140" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="7" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4290,10 +4368,10 @@
       <c r="A141" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="7" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4301,10 +4379,10 @@
       <c r="A142" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="7" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4312,10 +4390,10 @@
       <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="17" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4323,10 +4401,10 @@
       <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4334,10 +4412,10 @@
       <c r="A145" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="19" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4345,10 +4423,10 @@
       <c r="A146" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="18" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4356,10 +4434,10 @@
       <c r="A147" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="18" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4367,10 +4445,10 @@
       <c r="A148" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="18" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4378,10 +4456,10 @@
       <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="18" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4389,10 +4467,10 @@
       <c r="A150" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="18" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4400,10 +4478,10 @@
       <c r="A151" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="18" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4411,10 +4489,10 @@
       <c r="A152" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="18" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4422,10 +4500,10 @@
       <c r="A153" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="18" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4433,10 +4511,10 @@
       <c r="A154" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="18" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4444,10 +4522,10 @@
       <c r="A155" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="18" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4455,10 +4533,10 @@
       <c r="A156" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="18" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4466,10 +4544,10 @@
       <c r="A157" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="18" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4477,10 +4555,10 @@
       <c r="A158" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="17" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4488,10 +4566,10 @@
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="17" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4499,10 +4577,10 @@
       <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4510,10 +4588,10 @@
       <c r="A161" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="17" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4521,10 +4599,10 @@
       <c r="A162" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="17" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4532,10 +4610,10 @@
       <c r="A163" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="17" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4543,10 +4621,10 @@
       <c r="A164" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="17" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4554,10 +4632,10 @@
       <c r="A165" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="17" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4565,10 +4643,10 @@
       <c r="A166" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="17" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4576,10 +4654,10 @@
       <c r="A167" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="17" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4587,10 +4665,10 @@
       <c r="A168" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="17" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4598,499 +4676,499 @@
       <c r="A169" t="s">
         <v>333</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="17" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="20" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="20" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="21" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="20" t="s">
+      <c r="B173" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="21" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="22" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="22" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="22" t="s">
+      <c r="A176" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="22" t="s">
+      <c r="B176" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="23" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="22" t="s">
+      <c r="A178" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="23" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="23" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="22" t="s">
+      <c r="A180" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="23" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="22" t="s">
+      <c r="C181" s="23" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="22" t="s">
+      <c r="A182" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="23" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="22" t="s">
+      <c r="A183" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="22" t="s">
+      <c r="A184" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="23" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="22" t="s">
+      <c r="A185" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="23" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="22" t="s">
+      <c r="A186" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="23" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="23" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="22" t="s">
+      <c r="A188" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="22" t="s">
+      <c r="A189" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="23" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="23" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B191" s="20" t="s">
+      <c r="B191" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="B192" s="20" t="s">
+      <c r="B192" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B193" s="20" t="s">
+      <c r="B193" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="21" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="20" t="s">
+      <c r="B194" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="21" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="20" t="s">
+      <c r="A195" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="B195" s="20" t="s">
+      <c r="B195" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C195" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="B196" s="20" t="s">
+      <c r="B196" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B197" s="20" t="s">
+      <c r="B197" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="20" t="s">
+      <c r="B198" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="20" t="s">
+      <c r="B199" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B200" s="20" t="s">
+      <c r="B200" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B202" s="20" t="s">
+      <c r="B202" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="21" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="22" t="s">
+      <c r="A203" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="22" t="s">
+      <c r="A204" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="23" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="22" t="s">
+      <c r="A205" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="23" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="23" t="s">
+      <c r="A206" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="C206" s="24" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="22" t="s">
+      <c r="A207" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="23" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="22" t="s">
+      <c r="A208" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="23" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="22" t="s">
+      <c r="A210" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="23" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="22" t="s">
+      <c r="A211" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="23" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="22" t="s">
+      <c r="A212" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="23" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="22" t="s">
+      <c r="A213" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B213" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="23" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="7" t="s">
         <v>410</v>
       </c>
       <c r="B214" t="s">
@@ -5101,7 +5179,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B215" t="s">
@@ -5112,7 +5190,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="7" t="s">
         <v>414</v>
       </c>
       <c r="B216" t="s">
@@ -5123,7 +5201,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B217" t="s">
@@ -5134,7 +5212,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="7" t="s">
         <v>418</v>
       </c>
       <c r="B218" t="s">
@@ -5145,7 +5223,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B219" t="s">
@@ -5156,7 +5234,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B220" t="s">
@@ -5167,7 +5245,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="7" t="s">
         <v>424</v>
       </c>
       <c r="B221" t="s">
@@ -5266,7 +5344,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="7" t="s">
         <v>442</v>
       </c>
       <c r="B230" t="s">
@@ -5277,7 +5355,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="7" t="s">
         <v>444</v>
       </c>
       <c r="B231" t="s">
@@ -5288,7 +5366,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B232" t="s">
@@ -5299,7 +5377,7 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="7" t="s">
         <v>448</v>
       </c>
       <c r="B233" t="s">
@@ -5310,14 +5388,157 @@
       </c>
     </row>
     <row r="234" s="4" customFormat="1" spans="1:3">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="9" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>452</v>
+      </c>
+      <c r="B235" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C235" s="25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="236" s="5" customFormat="1" spans="1:3">
+      <c r="A236" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="C236" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" s="5" customFormat="1" spans="1:3">
+      <c r="A237" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="B237" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B238" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C238" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B239" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B240" t="s">
+        <v>461</v>
+      </c>
+      <c r="C240" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B241" t="s">
+        <v>463</v>
+      </c>
+      <c r="C241" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B242" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B243" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B244" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C244" s="28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B245" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B246" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C246" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B247" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5328,7 +5549,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="474">
   <si>
     <t>key</t>
   </si>
@@ -1627,6 +1627,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 共击败 </t>
+  </si>
+  <si>
+    <t>KuangXuanXiangQiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在屏幕上拖动出一个方框，选中框内所有的活动单位。&lt;br/&gt;  在左边的设置按钮（齿轮图标）里可以在&lt;color=#a0ff50&gt;正矩形框选&lt;/color&gt;模式和&lt;color=#a0ff50&gt;菱形框选&lt;/color&gt;模式之间切换</t>
   </si>
 </sst>
 </file>
@@ -2354,13 +2360,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2414,19 +2419,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2812,10 +2805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2938,10 +2931,10 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2949,10 +2942,10 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2960,10 +2953,10 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2971,10 +2964,10 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2982,10 +2975,10 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2993,21 +2986,21 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3081,10 +3074,10 @@
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3125,10 +3118,10 @@
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3169,10 +3162,10 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3188,40 +3181,40 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3235,10 +3228,10 @@
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3246,32 +3239,32 @@
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3279,10 +3272,10 @@
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3290,10 +3283,10 @@
       <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3301,10 +3294,10 @@
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3312,10 +3305,10 @@
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3323,10 +3316,10 @@
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3334,10 +3327,10 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3345,10 +3338,10 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3356,10 +3349,10 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3367,10 +3360,10 @@
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3378,10 +3371,10 @@
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3389,10 +3382,10 @@
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3400,10 +3393,10 @@
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3411,10 +3404,10 @@
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3422,10 +3415,10 @@
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3433,10 +3426,10 @@
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3444,15 +3437,15 @@
       <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
@@ -3463,7 +3456,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -3474,7 +3467,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -3752,10 +3745,10 @@
       <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3763,10 +3756,10 @@
       <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3928,10 +3921,10 @@
       <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="9" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3939,10 +3932,10 @@
       <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3958,7 +3951,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B104" t="s">
@@ -3969,7 +3962,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
@@ -3980,7 +3973,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
@@ -3991,24 +3984,24 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4049,10 +4042,10 @@
       <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4071,10 +4064,10 @@
       <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4082,10 +4075,10 @@
       <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="9" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4115,10 +4108,10 @@
       <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4126,10 +4119,10 @@
       <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4137,10 +4130,10 @@
       <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4148,10 +4141,10 @@
       <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4159,10 +4152,10 @@
       <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="9" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4170,10 +4163,10 @@
       <c r="A123" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4181,10 +4174,10 @@
       <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4192,10 +4185,10 @@
       <c r="A125" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4203,10 +4196,10 @@
       <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4214,10 +4207,10 @@
       <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4225,10 +4218,10 @@
       <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4236,10 +4229,10 @@
       <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4247,10 +4240,10 @@
       <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4258,10 +4251,10 @@
       <c r="A131" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4269,10 +4262,10 @@
       <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="9" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4291,10 +4284,10 @@
       <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="15" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4302,10 +4295,10 @@
       <c r="A135" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4313,10 +4306,10 @@
       <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="15" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4324,10 +4317,10 @@
       <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4335,10 +4328,10 @@
       <c r="A138" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4346,10 +4339,10 @@
       <c r="A139" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4357,10 +4350,10 @@
       <c r="A140" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4368,10 +4361,10 @@
       <c r="A141" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4379,10 +4372,10 @@
       <c r="A142" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4390,10 +4383,10 @@
       <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4401,10 +4394,10 @@
       <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="17" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4412,10 +4405,10 @@
       <c r="A145" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="18" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4423,10 +4416,10 @@
       <c r="A146" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="17" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4434,10 +4427,10 @@
       <c r="A147" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="17" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4445,10 +4438,10 @@
       <c r="A148" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="17" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4456,10 +4449,10 @@
       <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="17" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4467,10 +4460,10 @@
       <c r="A150" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4478,10 +4471,10 @@
       <c r="A151" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4489,10 +4482,10 @@
       <c r="A152" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="17" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4500,10 +4493,10 @@
       <c r="A153" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4511,10 +4504,10 @@
       <c r="A154" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4522,10 +4515,10 @@
       <c r="A155" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="17" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4533,10 +4526,10 @@
       <c r="A156" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="17" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4544,10 +4537,10 @@
       <c r="A157" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4555,10 +4548,10 @@
       <c r="A158" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4566,10 +4559,10 @@
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4577,10 +4570,10 @@
       <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4588,10 +4581,10 @@
       <c r="A161" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4599,10 +4592,10 @@
       <c r="A162" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="16" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4610,10 +4603,10 @@
       <c r="A163" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4621,10 +4614,10 @@
       <c r="A164" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4632,10 +4625,10 @@
       <c r="A165" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="16" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4643,10 +4636,10 @@
       <c r="A166" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4654,10 +4647,10 @@
       <c r="A167" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="16" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4665,10 +4658,10 @@
       <c r="A168" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4676,499 +4669,499 @@
       <c r="A169" t="s">
         <v>333</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="19" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="19" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B173" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="22" t="s">
+      <c r="A174" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="21" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="22" t="s">
+      <c r="A175" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C175" s="22" t="s">
+      <c r="C175" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="23" t="s">
+      <c r="A176" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="23" t="s">
+      <c r="B176" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="22" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="24" t="s">
+      <c r="A177" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="23" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="22" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="22" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="22" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="23" t="s">
+      <c r="A181" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="22" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="23" t="s">
+      <c r="A183" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="C183" s="22" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="23" t="s">
+      <c r="A184" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="22" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="23" t="s">
+      <c r="A185" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" s="22" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="23" t="s">
+      <c r="A186" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="22" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="23" t="s">
+      <c r="C187" s="22" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="23" t="s">
+      <c r="A188" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C188" s="23" t="s">
+      <c r="C188" s="22" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="23" t="s">
+      <c r="A189" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="C189" s="23" t="s">
+      <c r="C189" s="22" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="23" t="s">
+      <c r="A190" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="B190" s="23" t="s">
+      <c r="B190" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C193" s="21" t="s">
+      <c r="C193" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B195" s="21" t="s">
+      <c r="B195" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B196" s="21" t="s">
+      <c r="B196" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B197" s="21" t="s">
+      <c r="B197" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="20" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="22" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="23" t="s">
+      <c r="A204" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="B204" s="23" t="s">
+      <c r="B204" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="C204" s="22" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="23" t="s">
+      <c r="A205" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="23" t="s">
+      <c r="C205" s="22" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="C206" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="23" t="s">
+      <c r="A207" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="22" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="23" t="s">
+      <c r="A208" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C208" s="22" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="23" t="s">
+      <c r="A209" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="23" t="s">
+      <c r="B209" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="23" t="s">
+      <c r="C209" s="22" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="23" t="s">
+      <c r="A210" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="23" t="s">
+      <c r="C210" s="22" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="23" t="s">
+      <c r="A211" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="22" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="23" t="s">
+      <c r="A212" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C212" s="22" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="23" t="s">
+      <c r="A213" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="C213" s="22" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="6" t="s">
         <v>410</v>
       </c>
       <c r="B214" t="s">
@@ -5179,7 +5172,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="6" t="s">
         <v>412</v>
       </c>
       <c r="B215" t="s">
@@ -5190,7 +5183,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="6" t="s">
         <v>414</v>
       </c>
       <c r="B216" t="s">
@@ -5201,7 +5194,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="6" t="s">
         <v>416</v>
       </c>
       <c r="B217" t="s">
@@ -5212,7 +5205,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="6" t="s">
         <v>418</v>
       </c>
       <c r="B218" t="s">
@@ -5223,7 +5216,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="6" t="s">
         <v>420</v>
       </c>
       <c r="B219" t="s">
@@ -5234,7 +5227,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B220" t="s">
@@ -5245,7 +5238,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="6" t="s">
         <v>424</v>
       </c>
       <c r="B221" t="s">
@@ -5344,7 +5337,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B230" t="s">
@@ -5355,7 +5348,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="6" t="s">
         <v>444</v>
       </c>
       <c r="B231" t="s">
@@ -5366,7 +5359,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="6" t="s">
         <v>446</v>
       </c>
       <c r="B232" t="s">
@@ -5377,7 +5370,7 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="6" t="s">
         <v>448</v>
       </c>
       <c r="B233" t="s">
@@ -5388,13 +5381,13 @@
       </c>
     </row>
     <row r="234" s="4" customFormat="1" spans="1:3">
-      <c r="A234" s="11" t="s">
+      <c r="A234" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="8" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5402,59 +5395,59 @@
       <c r="A235" t="s">
         <v>452</v>
       </c>
-      <c r="B235" s="25" t="s">
+      <c r="B235" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C235" s="25" t="s">
+      <c r="C235" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="236" s="5" customFormat="1" spans="1:3">
-      <c r="A236" s="26" t="s">
+    <row r="236" s="4" customFormat="1" spans="1:3">
+      <c r="A236" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B236" s="27" t="s">
+      <c r="B236" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="C236" s="27" t="s">
+      <c r="C236" s="24" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="237" s="5" customFormat="1" spans="1:3">
-      <c r="A237" s="26" t="s">
+    <row r="237" s="4" customFormat="1" spans="1:3">
+      <c r="A237" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="25" t="s">
+      <c r="A238" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B238" s="28" t="s">
+      <c r="B238" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C238" s="28" t="s">
+      <c r="C238" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="25" t="s">
+      <c r="A239" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="25" t="s">
+      <c r="A240" s="6" t="s">
         <v>460</v>
       </c>
       <c r="B240" t="s">
@@ -5465,7 +5458,7 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="25" t="s">
+      <c r="A241" s="6" t="s">
         <v>462</v>
       </c>
       <c r="B241" t="s">
@@ -5476,69 +5469,80 @@
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="25" t="s">
+      <c r="A242" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B242" s="28" t="s">
+      <c r="B242" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C242" s="28" t="s">
+      <c r="C242" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="29" t="s">
+      <c r="A243" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B243" s="28" t="s">
+      <c r="B243" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C243" s="28" t="s">
+      <c r="C243" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="29" t="s">
+      <c r="A244" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B244" s="28" t="s">
+      <c r="B244" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C244" s="28" t="s">
+      <c r="C244" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="29" t="s">
+      <c r="A245" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B245" s="28" t="s">
+      <c r="B245" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C245" s="28" t="s">
+      <c r="C245" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="29" t="s">
+      <c r="A246" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B246" s="28" t="s">
+      <c r="B246" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C246" s="28" t="s">
+      <c r="C246" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="29" t="s">
+      <c r="A247" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B247" s="28" t="s">
+      <c r="B247" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C247" s="28" t="s">
+      <c r="C247" s="8" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>472</v>
+      </c>
+      <c r="B248" t="s">
+        <v>473</v>
+      </c>
+      <c r="C248" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +5553,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -267,7 +267,7 @@
 &lt;b&gt;绑定/动作：&lt;/b&gt;天涳の翼(QQ 349070005)、适中(QQ 1136976220)
 &lt;b&gt;绑定/动作：&lt;/b&gt;哈哈哈哈(QQ 2517969872)、一方狂三(QQ 1256604813)
 &lt;b&gt;模型/动作：&lt;/b&gt;⊹꙳ ˶˙ᵕ˙˶ ⊹꙳(QQ 2104435032)、&lt;color=#a0ff50&gt;荧瞳(QQ 287859992)、荒野乱斗(QQ 2930801690)&lt;/color&gt;
-&lt;b&gt;语音：&lt;/b&gt;无梦(QQ 1744500392)、水薄荷(QQ 1982131539)
+&lt;b&gt;语音：&lt;/b&gt;无梦(QQ 1744500392)、水薄荷(QQ 1982131539)、luvvoice.com、speechgen.io
 &lt;b&gt;语音：&lt;/b&gt;若有道心(QQ 1602576119)、潭(QQ 1514475926)、&lt;color=#a0ff50&gt;凌枭(QQ 2862703087)&lt;/color&gt;
 &lt;b&gt;程序：&lt;/b&gt;火凤凰(QQ 75187631)、&lt;color=#a0ff50&gt;江沉晚吟时(QQ 3380125833)&lt;/color&gt;
 &lt;b&gt;程序：&lt;/b&gt;庄园(QQ 2516080307)、kunnka(QQ 954436840)、樱木花道(QQ 251949672)
@@ -1893,17 +1893,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2807,8 +2807,8 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5553,7 +5553,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="484">
   <si>
     <t>key</t>
   </si>
@@ -650,6 +650,12 @@
 工虫</t>
   </si>
   <si>
+    <t>XiangQiangKongXianGongChengCheGongChong</t>
+  </si>
+  <si>
+    <t>每点击一次切换到下一个&lt;color=#a0ff50&gt;工程车&lt;/color&gt;或&lt;color=#a0ff50&gt;工虫&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>QuanBuZhanDouDanWei</t>
   </si>
   <si>
@@ -657,6 +663,12 @@
   战斗单位</t>
   </si>
   <si>
+    <t>XiangQingQuanBuZhanDouDanWei</t>
+  </si>
+  <si>
+    <t>选中所有可移动的战斗单位</t>
+  </si>
+  <si>
     <t>ZhanBao</t>
   </si>
   <si>
@@ -761,6 +773,13 @@
     <t>取消选中</t>
   </si>
   <si>
+    <t>XiangQiangQuXiaoXuanZhong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    取消当前选中的单位。
+    可以防止误操作。</t>
+  </si>
+  <si>
     <t>DeZhanJv</t>
   </si>
   <si>
@@ -797,6 +816,12 @@
     <t>取  消</t>
   </si>
   <si>
+    <t>XiangQingQuXiao</t>
+  </si>
+  <si>
+    <t>取消当前要点击地面的操作</t>
+  </si>
+  <si>
     <t>QueDing</t>
   </si>
   <si>
@@ -807,6 +832,12 @@
   </si>
   <si>
     <t>强行走</t>
+  </si>
+  <si>
+    <t>XiangQiangQiangXingZou</t>
+  </si>
+  <si>
+    <t>不理会途中遇到的敌人，强行走到目标点</t>
   </si>
   <si>
     <t>YuanDiJianShou</t>
@@ -2360,7 +2391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2391,6 +2422,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2805,10 +2839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3752,7 +3786,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" ht="28.5" spans="1:3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -3763,14 +3797,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" ht="28.5" spans="1:3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3917,52 +3951,52 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" ht="28.5" spans="1:3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" ht="28.5" spans="1:3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" ht="28.5" spans="1:3">
       <c r="A103" t="s">
         <v>204</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
+    <row r="104" ht="28.5" spans="1:3">
+      <c r="A104" t="s">
         <v>206</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
@@ -3972,14 +4006,14 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
+    <row r="106" ht="28.5" spans="1:3">
+      <c r="A106" t="s">
         <v>210</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="15" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3987,10 +4021,10 @@
       <c r="A107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3998,15 +4032,15 @@
       <c r="A108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="A109" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B109" t="s">
@@ -4017,35 +4051,35 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="A110" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="A111" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" ht="28.5" spans="1:3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4060,25 +4094,25 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" ht="28.5" spans="1:3">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" ht="28.5" spans="1:3">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4093,25 +4127,25 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" ht="28.5" spans="1:3">
       <c r="A117" t="s">
         <v>232</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" ht="28.5" spans="1:3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4137,29 +4171,29 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" ht="28.5" spans="1:3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" ht="28.5" spans="1:3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" ht="42.75" spans="1:3">
+    <row r="123" ht="28.5" spans="1:3">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -4170,7 +4204,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" ht="42.75" spans="1:3">
+    <row r="124" ht="28.5" spans="1:3">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -4181,7 +4215,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" ht="42.75" spans="1:3">
+    <row r="125" ht="28.5" spans="1:3">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -4192,7 +4226,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" ht="42.75" spans="1:3">
+    <row r="126" ht="28.5" spans="1:3">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -4203,7 +4237,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="42.75" spans="1:3">
+    <row r="127" ht="28.5" spans="1:3">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -4247,7 +4281,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" ht="28.5" spans="1:3">
+    <row r="131" ht="42.75" spans="1:3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -4258,7 +4292,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" ht="28.5" spans="1:3">
+    <row r="132" ht="42.75" spans="1:3">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -4269,58 +4303,58 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" ht="42.75" spans="1:3">
       <c r="A133" t="s">
         <v>264</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" ht="42.75" spans="1:3">
       <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" ht="42.75" spans="1:3">
       <c r="A135" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" ht="28.5" spans="1:3">
       <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" ht="28.5" spans="1:3">
       <c r="A137" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="9" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4328,10 +4362,10 @@
       <c r="A138" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4339,10 +4373,10 @@
       <c r="A139" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="16" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4350,10 +4384,10 @@
       <c r="A140" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="16" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4361,10 +4395,10 @@
       <c r="A141" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="16" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4383,10 +4417,10 @@
       <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4394,10 +4428,10 @@
       <c r="A144" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="6" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4405,10 +4439,10 @@
       <c r="A145" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4416,10 +4450,10 @@
       <c r="A146" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4427,10 +4461,10 @@
       <c r="A147" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4449,10 +4483,10 @@
       <c r="A149" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="18" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4460,87 +4494,87 @@
       <c r="A150" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>289</v>
+      <c r="B150" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>299</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>291</v>
+        <v>300</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="17" t="s">
-        <v>309</v>
+      <c r="B156" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="18" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4548,10 +4582,10 @@
       <c r="A158" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="18" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4559,10 +4593,10 @@
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="18" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4570,76 +4604,76 @@
       <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>305</v>
+      <c r="B160" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>317</v>
-      </c>
-      <c r="B161" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C161" s="16" t="s">
-        <v>318</v>
+      <c r="B161" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>319</v>
-      </c>
-      <c r="B162" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>320</v>
+      <c r="B162" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>321</v>
-      </c>
-      <c r="B163" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C163" s="16" t="s">
-        <v>322</v>
+      <c r="B163" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>323</v>
-      </c>
-      <c r="B164" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="16" t="s">
-        <v>324</v>
+      <c r="B164" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>325</v>
-      </c>
-      <c r="B165" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C165" s="16" t="s">
-        <v>326</v>
+      <c r="B165" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="17" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4647,10 +4681,10 @@
       <c r="A167" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="17" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4658,10 +4692,10 @@
       <c r="A168" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="17" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4669,549 +4703,549 @@
       <c r="A169" t="s">
         <v>333</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="17" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="19" t="s">
+      <c r="A170" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="17" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="19" t="s">
+      <c r="A171" t="s">
         <v>337</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="17" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="20" t="s">
+      <c r="A172" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="17" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="20" t="s">
+      <c r="A173" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>193</v>
+      <c r="B173" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C174" s="21" t="s">
-        <v>209</v>
+      <c r="A174" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C175" s="21" t="s">
-        <v>211</v>
+      <c r="A175" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="B176" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>345</v>
+      <c r="A176" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>347</v>
+      <c r="A177" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="B178" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>349</v>
+      <c r="A178" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="22" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="22" t="s">
+      <c r="C181" s="23" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="22" t="s">
+      <c r="A182" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="24" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="22" t="s">
+      <c r="A183" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="22" t="s">
+      <c r="A184" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="23" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="22" t="s">
+      <c r="A185" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="23" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="22" t="s">
+      <c r="A186" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="23" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="23" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="22" t="s">
+      <c r="A188" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="22" t="s">
+      <c r="A189" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="23" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="23" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B191" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>179</v>
+      <c r="B191" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="B192" s="20" t="s">
+      <c r="A192" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C196" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="B194" s="20" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B198" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C198" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B196" s="20" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B202" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C202" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="B198" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>389</v>
+      <c r="A203" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="B204" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>391</v>
+      <c r="A204" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="B205" s="22" t="s">
+      <c r="A205" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="22" t="s">
-        <v>393</v>
+      <c r="B205" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="B206" s="23" t="s">
+      <c r="A206" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="23" t="s">
-        <v>395</v>
+      <c r="B206" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="22" t="s">
+      <c r="A207" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="21" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="22" t="s">
+      <c r="A208" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="23" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="22" t="s">
+      <c r="A210" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="23" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="22" t="s">
+      <c r="A211" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="24" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="22" t="s">
+      <c r="A212" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="23" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="22" t="s">
+      <c r="A213" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B213" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="23" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="23" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="23" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="23" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="23" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5249,7 +5283,7 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="s">
+      <c r="A222" s="6" t="s">
         <v>426</v>
       </c>
       <c r="B222" t="s">
@@ -5260,7 +5294,7 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="A223" s="6" t="s">
         <v>428</v>
       </c>
       <c r="B223" t="s">
@@ -5271,7 +5305,7 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" t="s">
+      <c r="A224" s="6" t="s">
         <v>430</v>
       </c>
       <c r="B224" t="s">
@@ -5282,7 +5316,7 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" t="s">
+      <c r="A225" s="6" t="s">
         <v>432</v>
       </c>
       <c r="B225" t="s">
@@ -5293,7 +5327,7 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" t="s">
+      <c r="A226" s="6" t="s">
         <v>434</v>
       </c>
       <c r="B226" t="s">
@@ -5337,7 +5371,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="6" t="s">
+      <c r="A230" t="s">
         <v>442</v>
       </c>
       <c r="B230" t="s">
@@ -5348,7 +5382,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="6" t="s">
+      <c r="A231" t="s">
         <v>444</v>
       </c>
       <c r="B231" t="s">
@@ -5359,7 +5393,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="6" t="s">
+      <c r="A232" t="s">
         <v>446</v>
       </c>
       <c r="B232" t="s">
@@ -5370,7 +5404,7 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="6" t="s">
+      <c r="A233" t="s">
         <v>448</v>
       </c>
       <c r="B233" t="s">
@@ -5380,169 +5414,224 @@
         <v>449</v>
       </c>
     </row>
-    <row r="234" s="4" customFormat="1" spans="1:3">
-      <c r="A234" s="10" t="s">
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" t="s">
         <v>451</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" t="s">
+      <c r="A235" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" t="s">
         <v>453</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="236" s="4" customFormat="1" spans="1:3">
-      <c r="A236" s="10" t="s">
+    <row r="236" spans="1:3">
+      <c r="A236" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B236" s="24" t="s">
+      <c r="B236" t="s">
         <v>455</v>
       </c>
-      <c r="C236" s="24" t="s">
+      <c r="C236" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="237" s="4" customFormat="1" spans="1:3">
-      <c r="A237" s="10" t="s">
+    <row r="237" spans="1:3">
+      <c r="A237" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" t="s">
         <v>457</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="6" t="s">
         <v>458</v>
       </c>
+      <c r="B238" t="s">
+        <v>459</v>
+      </c>
+      <c r="C238" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" s="4" customFormat="1" spans="1:3">
+      <c r="A239" s="10" t="s">
+        <v>460</v>
+      </c>
       <c r="B239" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B240" t="s">
-        <v>461</v>
-      </c>
-      <c r="C240" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="6" t="s">
+      <c r="A240" t="s">
         <v>462</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B240" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C240" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="6" t="s">
-        <v>174</v>
+    <row r="241" s="4" customFormat="1" spans="1:3">
+      <c r="A241" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B241" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" s="4" customFormat="1" spans="1:3">
+      <c r="A242" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>175</v>
+        <v>467</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>175</v>
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="6" t="s">
-        <v>464</v>
+        <v>176</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>465</v>
+        <v>177</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>177</v>
+        <v>470</v>
+      </c>
+      <c r="B245" t="s">
+        <v>471</v>
+      </c>
+      <c r="C245" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
+      </c>
+      <c r="B246" t="s">
+        <v>473</v>
+      </c>
+      <c r="C246" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>470</v>
+        <v>178</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>471</v>
+        <v>179</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>471</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>472</v>
-      </c>
-      <c r="B248" t="s">
-        <v>473</v>
-      </c>
-      <c r="C248" t="s">
-        <v>473</v>
+      <c r="A248" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>482</v>
+      </c>
+      <c r="B253" t="s">
+        <v>483</v>
+      </c>
+      <c r="C253" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5553,7 +5642,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="533">
   <si>
     <t>key</t>
   </si>
@@ -630,6 +630,12 @@
     <t>框选</t>
   </si>
   <si>
+    <t>XiangQinKuangXuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在屏幕上拖动出一个方框，选中框内所有的活动单位。&lt;br/&gt;  在左边的设置按钮（齿轮图标）里可以在&lt;color=#a0ff50&gt;正矩形框选&lt;/color&gt;模式和&lt;color=#a0ff50&gt;菱形框选&lt;/color&gt;模式之间切换</t>
+  </si>
+  <si>
     <t>JianZhuDanWei</t>
   </si>
   <si>
@@ -650,7 +656,7 @@
 工虫</t>
   </si>
   <si>
-    <t>XiangQiangKongXianGongChengCheGongChong</t>
+    <t>XiangQingKongXianGongChengCheGongChong</t>
   </si>
   <si>
     <t>每点击一次切换到下一个&lt;color=#a0ff50&gt;工程车&lt;/color&gt;或&lt;color=#a0ff50&gt;工虫&lt;/color&gt;</t>
@@ -773,7 +779,7 @@
     <t>取消选中</t>
   </si>
   <si>
-    <t>XiangQiangQuXiaoXuanZhong</t>
+    <t>XiangQingQuXiaoXuanZhong</t>
   </si>
   <si>
     <t xml:space="preserve">    取消当前选中的单位。
@@ -819,22 +825,28 @@
     <t>XiangQingQuXiao</t>
   </si>
   <si>
-    <t>取消当前要点击地面的操作</t>
-  </si>
-  <si>
-    <t>QueDing</t>
+    <t>取消当前操作</t>
+  </si>
+  <si>
+    <t>QueDingDianJiDianMian</t>
   </si>
   <si>
     <t>确 定</t>
   </si>
   <si>
+    <t>XiangQingQueDingDianJiDianMian</t>
+  </si>
+  <si>
+    <t>确定点击地面操作</t>
+  </si>
+  <si>
     <t>QiangXingZou</t>
   </si>
   <si>
     <t>强行走</t>
   </si>
   <si>
-    <t>XiangQiangQiangXingZou</t>
+    <t>XiangQingQiangXingZou</t>
   </si>
   <si>
     <t>不理会途中遇到的敌人，强行走到目标点</t>
@@ -847,10 +859,22 @@
 坚守</t>
   </si>
   <si>
+    <t>XiangQingYuanDiJianShou</t>
+  </si>
+  <si>
+    <t>不再追击警戒距离内的敌人</t>
+  </si>
+  <si>
     <t>GenSui</t>
   </si>
   <si>
     <t>跟随</t>
+  </si>
+  <si>
+    <t>XiangQingGenSui</t>
+  </si>
+  <si>
+    <t>跟随目标移动</t>
   </si>
   <si>
     <t>XunLuo</t>
@@ -860,6 +884,12 @@
 逻</t>
   </si>
   <si>
+    <t>XiangQingXunLuo</t>
+  </si>
+  <si>
+    <t>在选中的多个巡逻点之间巡逻</t>
+  </si>
+  <si>
     <t>LiKaiDiBao</t>
   </si>
   <si>
@@ -867,16 +897,34 @@
 地堡</t>
   </si>
   <si>
+    <t>XiangQingLiKaiDiBao</t>
+  </si>
+  <si>
+    <t>让&lt;color=#a0ff50&gt;地堡&lt;/color&gt;里的单位都出来</t>
+  </si>
+  <si>
     <t>LiKaiFangChong</t>
   </si>
   <si>
     <t>离开房虫</t>
   </si>
   <si>
+    <t>XiangQingLiKaiFangChong</t>
+  </si>
+  <si>
+    <t>让&lt;color=#a0ff50&gt;房虫&lt;/color&gt;里的单位都出来</t>
+  </si>
+  <si>
     <t>JiJieDian</t>
   </si>
   <si>
     <t>集结点</t>
+  </si>
+  <si>
+    <t>XiangQingJiJieDian</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出单位的集结位置点</t>
   </si>
   <si>
     <t>GongChengCheJiJieDian</t>
@@ -886,6 +934,12 @@
 集结点</t>
   </si>
   <si>
+    <t>XiangQingGongChengCheJiJieDian</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出工程车的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
     <t>GongChongJiJieDian</t>
   </si>
   <si>
@@ -893,6 +947,12 @@
 集结点</t>
   </si>
   <si>
+    <t>XiangQingGongChongJiJieDian</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出工虫的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
     <t>FangChongJiJieDian</t>
   </si>
   <si>
@@ -900,6 +960,15 @@
 集结点</t>
   </si>
   <si>
+    <t>XiangQingFangChongJiJieDian</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出房虫的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出房虫的集结位置点</t>
+  </si>
+  <si>
     <t>JieSuoJinZhanBing</t>
   </si>
   <si>
@@ -907,11 +976,23 @@
 近战兵</t>
   </si>
   <si>
+    <t>XiangQingJieSuoJinZhanBing</t>
+  </si>
+  <si>
+    <t>解锁后允许在兵营里产出&lt;color=#a0ff50&gt;近战兵&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>JieSuoQiangChong</t>
   </si>
   <si>
     <t>解锁
 枪虫</t>
+  </si>
+  <si>
+    <t>XiangQingJieSuoQiangChong</t>
+  </si>
+  <si>
+    <t>解锁后允许幼虫蜕变为&lt;color=#a0ff50&gt;枪虫&lt;/color&gt;</t>
   </si>
   <si>
     <t>ShengJiQiangBingGongJi</t>
@@ -985,11 +1066,23 @@
 分裂</t>
   </si>
   <si>
+    <t>XiangQingTaiSuiFenLie</t>
+  </si>
+  <si>
+    <t>分裂出一个新的太岁放置到源太岁的苔蔓(wàn)上</t>
+  </si>
+  <si>
     <t>ShanChuDanWei</t>
   </si>
   <si>
     <t>删除
 单位</t>
+  </si>
+  <si>
+    <t>XiangQingShanChuDanWei</t>
+  </si>
+  <si>
+    <t>快速删除自己的单位</t>
   </si>
   <si>
     <t>ZaiKanKan</t>
@@ -1660,10 +1753,81 @@
     <t xml:space="preserve"> 共击败 </t>
   </si>
   <si>
-    <t>KuangXuanXiangQiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 在屏幕上拖动出一个方框，选中框内所有的活动单位。&lt;br/&gt;  在左边的设置按钮（齿轮图标）里可以在&lt;color=#a0ff50&gt;正矩形框选&lt;/color&gt;模式和&lt;color=#a0ff50&gt;菱形框选&lt;/color&gt;模式之间切换</t>
+    <t>AttrName_1</t>
+  </si>
+  <si>
+    <t>AttrName_2</t>
+  </si>
+  <si>
+    <t>AttrName_3</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>AttrName_4</t>
+  </si>
+  <si>
+    <t>AttrName_5</t>
+  </si>
+  <si>
+    <t>前摇耗时</t>
+  </si>
+  <si>
+    <t>AttrName_6</t>
+  </si>
+  <si>
+    <t>AttrName_7</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>AttrName_8</t>
+  </si>
+  <si>
+    <t>能量</t>
+  </si>
+  <si>
+    <t>DangQian</t>
+  </si>
+  <si>
+    <t>当前</t>
+  </si>
+  <si>
+    <t>ShengJiHou</t>
+  </si>
+  <si>
+    <t>升级后</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>满级</t>
+  </si>
+  <si>
+    <t>LevelFormat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1676,7 +1840,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1785,6 +1949,18 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE4E4E4"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1929,12 +2105,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2264,134 +2434,134 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2423,9 +2593,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2454,6 +2621,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2839,10 +3012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="B261" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282:B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3775,18 +3948,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" ht="42.75" spans="1:3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" ht="42.75" spans="1:3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -3797,7 +3970,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" ht="28.5" spans="1:3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -3808,14 +3981,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="28.5" spans="1:3">
       <c r="A88" t="s">
         <v>174</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3973,14 +4146,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" ht="28.5" spans="1:3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3995,36 +4168,36 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" ht="28.5" spans="1:3">
       <c r="A105" t="s">
         <v>208</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" ht="28.5" spans="1:3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="6" t="s">
+    <row r="107" ht="28.5" spans="1:3">
+      <c r="A107" t="s">
         <v>212</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4054,10 +4227,10 @@
       <c r="A110" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4073,13 +4246,13 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="A112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4127,14 +4300,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" ht="28.5" spans="1:3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4160,14 +4333,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" ht="28.5" spans="1:3">
+    <row r="120" customFormat="1" spans="1:3">
       <c r="A120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4182,7 +4355,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" customFormat="1" spans="1:3">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -4204,14 +4377,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" ht="28.5" spans="1:3">
+    <row r="124" customFormat="1" spans="1:3">
       <c r="A124" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4226,62 +4399,62 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" ht="28.5" spans="1:3">
+    <row r="126" customFormat="1" spans="1:3">
       <c r="A126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="28.5" spans="1:3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="128" ht="42.75" spans="1:3">
+    <row r="128" customFormat="1" spans="1:3">
       <c r="A128" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="129" ht="42.75" spans="1:3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" ht="42.75" spans="1:3">
+    <row r="130" customFormat="1" spans="1:3">
       <c r="A130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="131" ht="42.75" spans="1:3">
+    <row r="131" ht="28.5" spans="1:3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -4292,18 +4465,18 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" ht="42.75" spans="1:3">
+    <row r="132" customFormat="1" spans="1:3">
       <c r="A132" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" ht="42.75" spans="1:3">
+    <row r="133" ht="28.5" spans="1:3">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -4314,18 +4487,18 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" ht="42.75" spans="1:3">
+    <row r="134" customFormat="1" spans="1:3">
       <c r="A134" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="135" ht="42.75" spans="1:3">
+    <row r="135" ht="28.5" spans="1:3">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -4336,1303 +4509,1601 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" ht="28.5" spans="1:3">
+    <row r="136" customFormat="1" spans="1:3">
       <c r="A136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>271</v>
+      <c r="C136" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="137" ht="28.5" spans="1:3">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="1:3">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" ht="28.5" spans="1:3">
       <c r="A139" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="B139" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" spans="1:3">
       <c r="A140" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="B140" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" ht="42.75" spans="1:3">
       <c r="A141" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="B141" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" ht="42.75" spans="1:3">
       <c r="A142" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="B142" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" ht="42.75" spans="1:3">
       <c r="A143" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="B143" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" ht="42.75" spans="1:3">
       <c r="A144" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="B144" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" ht="42.75" spans="1:3">
       <c r="A145" t="s">
-        <v>288</v>
-      </c>
-      <c r="B145" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="B145" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" ht="42.75" spans="1:3">
       <c r="A146" t="s">
-        <v>290</v>
-      </c>
-      <c r="B146" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="B146" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" ht="42.75" spans="1:3">
       <c r="A147" t="s">
-        <v>292</v>
-      </c>
-      <c r="B147" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="B147" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" ht="42.75" spans="1:3">
       <c r="A148" t="s">
-        <v>294</v>
-      </c>
-      <c r="B148" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="B148" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" ht="28.5" spans="1:3">
       <c r="A149" t="s">
-        <v>296</v>
-      </c>
-      <c r="B149" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="B149" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" customFormat="1" spans="1:3">
       <c r="A150" t="s">
-        <v>298</v>
-      </c>
-      <c r="B150" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" ht="28.5" spans="1:3">
       <c r="A151" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="B151" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" customFormat="1" spans="1:3">
       <c r="A152" t="s">
-        <v>302</v>
-      </c>
-      <c r="B152" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="18" t="s">
-        <v>303</v>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>304</v>
-      </c>
-      <c r="B153" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="18" t="s">
-        <v>305</v>
+      <c r="B153" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>306</v>
-      </c>
-      <c r="B154" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="18" t="s">
-        <v>307</v>
+      <c r="B154" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>308</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>299</v>
+        <v>309</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>309</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>301</v>
+        <v>311</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>310</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>322</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>326</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>315</v>
+        <v>329</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B175" s="20" t="s">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C180" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="C177" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="B178" s="21" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C213" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B217" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C217" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="B179" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="B180" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="B181" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="C181" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C182" s="24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B183" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="B187" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="B188" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="B189" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C189" s="23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="B190" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="B191" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="B192" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="B193" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="C193" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B196" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C196" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C197" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="B198" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C198" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C199" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B200" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C200" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B201" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C201" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="B202" s="21" t="s">
+    <row r="218" spans="1:3">
+      <c r="A218" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B218" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C218" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B203" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C203" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B204" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C204" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C205" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B206" s="21" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B219" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C219" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="B207" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="B208" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="B209" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="B210" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="B211" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="B213" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="B214" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="B215" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="B216" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="B217" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="B218" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B219" t="s">
-        <v>421</v>
-      </c>
-      <c r="C219" t="s">
-        <v>421</v>
-      </c>
-    </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B220" t="s">
-        <v>423</v>
-      </c>
-      <c r="C220" t="s">
-        <v>423</v>
+      <c r="A220" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B221" t="s">
-        <v>425</v>
-      </c>
-      <c r="C221" t="s">
-        <v>425</v>
+      <c r="A221" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B222" t="s">
+      <c r="A222" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="C222" t="s">
-        <v>427</v>
+      <c r="B222" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B223" t="s">
+      <c r="A223" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="C223" t="s">
-        <v>429</v>
+      <c r="B223" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="A224" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="C224" t="s">
-        <v>431</v>
+      <c r="B224" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="A225" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="C225" t="s">
-        <v>433</v>
+      <c r="B225" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="A226" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="C226" t="s">
-        <v>435</v>
+      <c r="B226" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>436</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="A227" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="C227" t="s">
-        <v>437</v>
+      <c r="B227" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>438</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="A228" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="C228" t="s">
-        <v>439</v>
+      <c r="B228" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>440</v>
-      </c>
-      <c r="B229" t="s">
+      <c r="A229" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="C229" t="s">
-        <v>441</v>
+      <c r="B229" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>442</v>
-      </c>
-      <c r="B230" t="s">
+      <c r="A230" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="C230" t="s">
-        <v>443</v>
+      <c r="B230" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>444</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="A231" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C231" t="s">
-        <v>445</v>
+      <c r="B231" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>446</v>
-      </c>
-      <c r="B232" t="s">
+      <c r="A232" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C232" t="s">
-        <v>447</v>
+      <c r="B232" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>448</v>
-      </c>
-      <c r="B233" t="s">
+      <c r="A233" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="C233" t="s">
-        <v>449</v>
+      <c r="B233" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>450</v>
+      <c r="A234" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="B234" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C234" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B235" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C235" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B236" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C236" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B237" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C237" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B238" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C238" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="239" s="4" customFormat="1" spans="1:3">
-      <c r="A239" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B239" s="8" t="s">
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>461</v>
+      <c r="B239" t="s">
+        <v>462</v>
+      </c>
+      <c r="C239" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>462</v>
-      </c>
-      <c r="B240" s="6" t="s">
+      <c r="A240" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="241" s="4" customFormat="1" spans="1:3">
-      <c r="A241" s="10" t="s">
+      <c r="B240" t="s">
         <v>464</v>
       </c>
-      <c r="B241" s="25" t="s">
+      <c r="C240" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C241" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="242" s="4" customFormat="1" spans="1:3">
-      <c r="A242" s="10" t="s">
+      <c r="B241" t="s">
         <v>466</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="C241" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
         <v>467</v>
       </c>
-      <c r="C242" s="8" t="s">
-        <v>467</v>
+      <c r="B242" t="s">
+        <v>468</v>
+      </c>
+      <c r="C242" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>177</v>
+      <c r="A243" t="s">
+        <v>469</v>
+      </c>
+      <c r="B243" t="s">
+        <v>470</v>
+      </c>
+      <c r="C243" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>469</v>
+      <c r="A244" t="s">
+        <v>471</v>
+      </c>
+      <c r="B244" t="s">
+        <v>472</v>
+      </c>
+      <c r="C244" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="6" t="s">
-        <v>470</v>
+      <c r="A245" t="s">
+        <v>473</v>
       </c>
       <c r="B245" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C245" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="6" t="s">
-        <v>472</v>
+      <c r="A246" t="s">
+        <v>475</v>
       </c>
       <c r="B246" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C246" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>179</v>
+      <c r="A247" t="s">
+        <v>477</v>
+      </c>
+      <c r="B247" t="s">
+        <v>478</v>
+      </c>
+      <c r="C247" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>475</v>
+      <c r="A248" t="s">
+        <v>479</v>
+      </c>
+      <c r="B248" t="s">
+        <v>480</v>
+      </c>
+      <c r="C248" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>477</v>
+      <c r="A249" t="s">
+        <v>481</v>
+      </c>
+      <c r="B249" t="s">
+        <v>482</v>
+      </c>
+      <c r="C249" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>181</v>
+        <v>483</v>
+      </c>
+      <c r="B250" t="s">
+        <v>484</v>
+      </c>
+      <c r="C250" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>479</v>
+        <v>485</v>
+      </c>
+      <c r="B251" t="s">
+        <v>486</v>
+      </c>
+      <c r="C251" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>481</v>
+        <v>487</v>
+      </c>
+      <c r="B252" t="s">
+        <v>488</v>
+      </c>
+      <c r="C252" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" t="s">
-        <v>482</v>
+      <c r="A253" s="6" t="s">
+        <v>489</v>
       </c>
       <c r="B253" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C253" t="s">
-        <v>483</v>
-      </c>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="254" s="4" customFormat="1" spans="1:3">
+      <c r="A254" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="256" s="4" customFormat="1" spans="1:3">
+      <c r="A256" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="257" s="4" customFormat="1" spans="1:3">
+      <c r="A257" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B260" t="s">
+        <v>502</v>
+      </c>
+      <c r="C260" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B261" t="s">
+        <v>504</v>
+      </c>
+      <c r="C261" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B268" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C268" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B269" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C269" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B270" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B271" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C271" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B272" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C272" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B273" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B274" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="C274" s="24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B275" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="C275" s="24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B276" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C276" s="24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B277" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="C277" s="24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B278" t="s">
+        <v>530</v>
+      </c>
+      <c r="C278" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="279" s="4" customFormat="1" spans="1:3">
+      <c r="A279" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="C279" s="25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="B280" s="26"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="B283" s="26"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="B284" s="26"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="B285" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5642,7 +6113,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/zh-Hans-CN.xlsx
+++ b/assets/翻译/zh-Hans-CN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="537">
   <si>
     <t>key</t>
   </si>
@@ -1828,6 +1828,18 @@
       </rPr>
       <t>级</t>
     </r>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>Miao</t>
+  </si>
+  <si>
+    <t>秒</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2624,6 +2636,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3014,8 +3029,8 @@
   <sheetPr/>
   <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B261" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282:B285"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A280" sqref="$A280:$XFD281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6094,16 +6109,35 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="B280" s="26"/>
+      <c r="A280" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="B280" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C280" s="24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="B281" t="s">
+        <v>536</v>
+      </c>
+      <c r="C281" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="B283" s="26"/>
+      <c r="B283" s="27"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="B284" s="26"/>
+      <c r="B284" s="27"/>
     </row>
     <row r="285" spans="1:3">
-      <c r="B285" s="26"/>
+      <c r="B285" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6113,7 +6147,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>